--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2658,7 +2658,7 @@
         <v>44265</v>
       </c>
       <c r="B284">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44327</v>
       </c>
       <c r="B346">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>44589</v>
       </c>
       <c r="B555">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4858,7 +4858,15 @@
         <v>44593</v>
       </c>
       <c r="B559">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B560">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,7 +1010,7 @@
         <v>44052</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44327</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44338</v>
       </c>
       <c r="B357">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4487,7 +4487,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,23 +4511,23 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,39 +4535,39 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,23 +4575,23 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,23 +4631,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,55 +4671,55 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B542">
         <v>4</v>
@@ -4727,79 +4727,79 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B549">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B551">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B552">
         <v>7</v>
@@ -4807,66 +4807,82 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B553">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B561">
         <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1306,7 @@
         <v>44089</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44142</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44284</v>
       </c>
       <c r="B303">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44327</v>
       </c>
       <c r="B346">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44381</v>
       </c>
       <c r="B400">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44394</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4882,7 +4882,15 @@
         <v>44597</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B563">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1306,7 @@
         <v>44089</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44107</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44117</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44124</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44142</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44381</v>
       </c>
       <c r="B400">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>44468</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44597</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4890,7 +4890,15 @@
         <v>44598</v>
       </c>
       <c r="B563">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,7 +1010,7 @@
         <v>44052</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44107</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44117</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44124</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44265</v>
       </c>
       <c r="B284">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44283</v>
       </c>
       <c r="B302">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44327</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44394</v>
       </c>
       <c r="B413">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>44468</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4487,7 +4487,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,23 +4511,23 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,39 +4535,39 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B519">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,23 +4575,23 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,23 +4631,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,55 +4671,55 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B542">
         <v>4</v>
@@ -4727,79 +4727,79 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B552">
         <v>7</v>
@@ -4807,98 +4807,114 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B553">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B563">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B564">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
         <v>44599</v>
       </c>
-      <c r="B564">
-        <v>1</v>
+      <c r="B565">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B566"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,7 +1010,7 @@
         <v>44052</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44057</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44089</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44265</v>
       </c>
       <c r="B284">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44327</v>
       </c>
       <c r="B346">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44338</v>
       </c>
       <c r="B357">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44583</v>
       </c>
       <c r="B549">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>44595</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4914,7 +4914,15 @@
         <v>44600</v>
       </c>
       <c r="B566">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B567">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +946,7 @@
         <v>44044</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44058</v>
       </c>
       <c r="B84">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44061</v>
       </c>
       <c r="B87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44073</v>
       </c>
       <c r="B99">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44107</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44164</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44187</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44284</v>
       </c>
       <c r="B303">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44322</v>
       </c>
       <c r="B341">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44338</v>
       </c>
       <c r="B357">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4487,7 +4487,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,23 +4511,23 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,39 +4535,39 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,23 +4575,23 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,23 +4631,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,63 +4671,63 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B543">
         <v>4</v>
@@ -4735,71 +4735,71 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B544">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B552">
         <v>7</v>
@@ -4807,79 +4807,79 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B553">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -4887,42 +4887,58 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B563">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B567">
         <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B569">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B569"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +970,7 @@
         <v>44047</v>
       </c>
       <c r="B73">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44051</v>
       </c>
       <c r="B77">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44187</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44332</v>
       </c>
       <c r="B351">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44338</v>
       </c>
       <c r="B357">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>44581</v>
       </c>
       <c r="B546">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>44598</v>
       </c>
       <c r="B563">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44602</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44603</v>
       </c>
       <c r="B568">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4939,6 +4939,22 @@
       </c>
       <c r="B569">
         <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2394,7 +2394,7 @@
         <v>44232</v>
       </c>
       <c r="B251">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>44605</v>
       </c>
       <c r="B570">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4954,6 +4954,14 @@
         <v>44606</v>
       </c>
       <c r="B571">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B572">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>43907</v>
+        <v>43898</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>43914</v>
+        <v>43907</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -415,15 +415,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -431,15 +431,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>43932</v>
+        <v>43927</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>43943</v>
+        <v>43932</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>43952</v>
+        <v>43944</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -471,31 +471,31 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>43958</v>
+        <v>43952</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>43963</v>
+        <v>43958</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -503,15 +503,15 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>43974</v>
+        <v>43970</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -559,15 +559,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43985</v>
+        <v>43980</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -575,15 +575,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -639,23 +639,23 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44007</v>
+        <v>44001</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -663,15 +663,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -679,71 +679,71 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -751,15 +751,15 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -767,39 +767,39 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -807,31 +807,31 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -839,271 +839,271 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B66">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B69">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B71">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B72">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B73">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B75">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B77">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B78">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B80">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B82">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B83">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B84">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B86">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B87">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B88">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B90">
         <v>31</v>
@@ -1111,23 +1111,23 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B91">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B92">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B93">
         <v>16</v>
@@ -1135,31 +1135,31 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B94">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B97">
         <v>23</v>
@@ -1167,215 +1167,215 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B98">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B100">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B111">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B112">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B115">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B122">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -1383,55 +1383,55 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B126">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B127">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B130">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B131">
         <v>8</v>
@@ -1439,15 +1439,15 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -1455,63 +1455,63 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -1519,47 +1519,47 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -1567,31 +1567,31 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B149">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -1599,39 +1599,39 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -1647,39 +1647,39 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B158">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B162">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -1695,159 +1695,159 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B173">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -1855,87 +1855,87 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B192">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -1943,39 +1943,39 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -1991,47 +1991,47 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -2047,63 +2047,63 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -2111,15 +2111,15 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -2127,71 +2127,71 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B218">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B222">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B223">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B225">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -2199,31 +2199,31 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B227">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B228">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B229">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B230">
         <v>5</v>
@@ -2231,103 +2231,103 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B231">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B233">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B235">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B236">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B238">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B240">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B241">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B242">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B243">
         <v>12</v>
@@ -2335,143 +2335,143 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B244">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B245">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B246">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B247">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B248">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B249">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B250">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B251">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B252">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B253">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B254">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B255">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B256">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B257">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B258">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B259">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B260">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B261">
         <v>15</v>
@@ -2479,295 +2479,295 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B262">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B263">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B264">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B265">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B267">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B268">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B269">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B271">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B272">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B273">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B274">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B275">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B276">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B277">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B278">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B279">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B280">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B281">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B282">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B283">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B284">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B285">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B286">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B288">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B289">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B291">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B292">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B293">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B294">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B295">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B296">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B297">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B298">
         <v>20</v>
@@ -2775,103 +2775,103 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B299">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B300">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B301">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B302">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B303">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B304">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B305">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B306">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B307">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B308">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B309">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B310">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B311">
         <v>27</v>
@@ -2879,63 +2879,63 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B312">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B313">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B314">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B315">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B317">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B318">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B319">
         <v>22</v>
@@ -2943,23 +2943,23 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B320">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B321">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B322">
         <v>27</v>
@@ -2967,79 +2967,79 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B323">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B324">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B325">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B326">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B327">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B328">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B329">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B330">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B331">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B332">
         <v>21</v>
@@ -3047,71 +3047,71 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B333">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B334">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B335">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B336">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B337">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B338">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B339">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B340">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B341">
         <v>23</v>
@@ -3119,39 +3119,39 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B342">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B343">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B344">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B345">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B346">
         <v>20</v>
@@ -3159,95 +3159,95 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B347">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B348">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B349">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B350">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B351">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B352">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B353">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B354">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B355">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B356">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B357">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B358">
         <v>17</v>
@@ -3255,255 +3255,255 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B359">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B360">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B361">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B362">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B363">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B364">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B365">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B366">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B367">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B368">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B369">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B370">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B371">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B372">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B373">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B374">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B375">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B376">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B377">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B378">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B379">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B380">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B381">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B382">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B383">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B384">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B385">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B386">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B387">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B388">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B389">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B390">
         <v>8</v>
@@ -3511,71 +3511,71 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B391">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B392">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B393">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B394">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B395">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B397">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B398">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B399">
         <v>6</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B400">
         <v>6</v>
@@ -3591,47 +3591,47 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B401">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B402">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B404">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B405">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B406">
         <v>5</v>
@@ -3639,87 +3639,87 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B407">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B408">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B410">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B411">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B412">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B414">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B416">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B417">
         <v>3</v>
@@ -3727,39 +3727,39 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B419">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B421">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B422">
         <v>3</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B423">
         <v>3</v>
@@ -3775,47 +3775,47 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B424">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B426">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B428">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B429">
         <v>3</v>
@@ -3823,39 +3823,39 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B430">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B431">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B432">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -3863,95 +3863,95 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B436">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B438">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B439">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44423</v>
+        <v>44422</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B444">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B446">
         <v>2</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -3967,23 +3967,23 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B449">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B450">
         <v>3</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B451">
         <v>3</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B452">
         <v>3</v>
@@ -4007,15 +4007,15 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44440</v>
+        <v>44438</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,55 +4055,55 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B459">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B461">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B462">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B463">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B464">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B466">
         <v>2</v>
@@ -4119,23 +4119,23 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B470">
         <v>2</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -4159,39 +4159,39 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44456</v>
+        <v>44454</v>
       </c>
       <c r="B472">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B473">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44461</v>
+        <v>44459</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B477">
         <v>2</v>
@@ -4207,23 +4207,23 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44464</v>
+        <v>44462</v>
       </c>
       <c r="B478">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44466</v>
+        <v>44464</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,39 +4231,39 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B481">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B483">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B485">
         <v>2</v>
@@ -4271,15 +4271,15 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44475</v>
+        <v>44473</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -4287,23 +4287,23 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B488">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44480</v>
+        <v>44478</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,15 +4311,15 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44484</v>
+        <v>44481</v>
       </c>
       <c r="B492">
         <v>2</v>
@@ -4327,63 +4327,63 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B493">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B494">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B495">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44491</v>
+        <v>44488</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44493</v>
+        <v>44491</v>
       </c>
       <c r="B498">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B499">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -4391,23 +4391,23 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44499</v>
+        <v>44495</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44501</v>
+        <v>44499</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44504</v>
+        <v>44501</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,23 +4423,23 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44508</v>
+        <v>44507</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44511</v>
+        <v>44508</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -4455,39 +4455,39 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44514</v>
+        <v>44512</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44517</v>
+        <v>44515</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44524</v>
+        <v>44517</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,23 +4511,23 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -4535,39 +4535,39 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B519">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,23 +4575,23 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,23 +4631,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,71 +4671,71 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B544">
         <v>4</v>
@@ -4743,63 +4743,63 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B552">
         <v>7</v>
@@ -4807,79 +4807,79 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B553">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -4887,82 +4887,106 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B563">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B572">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
         <v>44607</v>
       </c>
-      <c r="B572">
-        <v>1</v>
+      <c r="B573">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B575">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B575"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>44605</v>
       </c>
       <c r="B571">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>44608</v>
       </c>
       <c r="B574">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4986,7 +4986,23 @@
         <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B576">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B577">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B577"/>
+  <dimension ref="A1:B578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,15 +4983,15 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
         <v>6</v>
@@ -4999,10 +4999,18 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B577">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
         <v>44611</v>
       </c>
-      <c r="B577">
-        <v>2</v>
+      <c r="B578">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B578"/>
+  <dimension ref="A1:B579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,34 +4983,42 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B579">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44232</v>
       </c>
       <c r="B252">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44377</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>44471</v>
       </c>
       <c r="B484">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,23 +4631,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,71 +4671,71 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B544">
         <v>4</v>
@@ -4743,63 +4743,63 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B552">
         <v>7</v>
@@ -4807,79 +4807,79 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B553">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -4887,87 +4887,87 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B563">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B573">
         <v>3</v>
@@ -4975,50 +4975,50 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B577">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B578">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B579">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B579"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44232</v>
       </c>
       <c r="B252">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44377</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>44471</v>
       </c>
       <c r="B484">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4599,7 +4599,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,23 +4631,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B531">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B535">
         <v>3</v>
@@ -4671,71 +4671,71 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B544">
         <v>4</v>
@@ -4743,63 +4743,63 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B545">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B552">
         <v>7</v>
@@ -4807,79 +4807,79 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B553">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -4887,87 +4887,87 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B563">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B573">
         <v>3</v>
@@ -4975,39 +4975,39 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B578">
         <v>4</v>
@@ -5015,10 +5015,34 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
         <v>44614</v>
       </c>
-      <c r="B579">
-        <v>1</v>
+      <c r="B580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B581">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B582">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B582"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44128</v>
       </c>
       <c r="B155">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44169</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44354</v>
       </c>
       <c r="B374">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -5043,6 +5043,22 @@
       </c>
       <c r="B582">
         <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B583">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B584">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -1626,7 +1626,7 @@
         <v>44128</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44169</v>
       </c>
       <c r="B193">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44354</v>
       </c>
       <c r="B374">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>44619</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,10 +5055,42 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
         <v>44619</v>
       </c>
-      <c r="B584">
+      <c r="B585">
         <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B588">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44581</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44598</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>44602</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>44610</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44614</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5090,6 +5090,22 @@
         <v>44623</v>
       </c>
       <c r="B588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B590">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44153</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,39 +4983,39 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,58 +5055,66 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B590">
         <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B591">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B591"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5117,6 +5117,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B592">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44599</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44623</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5119,10 +5119,98 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
         <v>44629</v>
       </c>
-      <c r="B592">
-        <v>2</v>
+      <c r="B593">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B601">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B603">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B603"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44377</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -5210,7 +5210,47 @@
         <v>44639</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>44640</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B608">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44377</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,23 +4895,23 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
         <v>5</v>
@@ -4919,63 +4919,63 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44621</v>
+        <v>44619</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44643</v>
+        <v>44641</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,9 +5247,41 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
         <v>44645</v>
       </c>
-      <c r="B608">
+      <c r="B609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>44647</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B612">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,23 +4895,23 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
         <v>5</v>
@@ -4919,63 +4919,63 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B596">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B602">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,9 +5279,17 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B613">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B613"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5291,6 +5291,22 @@
       </c>
       <c r="B613">
         <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>44657</v>
+      </c>
+      <c r="B615">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44599</v>
       </c>
       <c r="B565">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5307,6 +5307,62 @@
       </c>
       <c r="B615">
         <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>44662</v>
+      </c>
+      <c r="B616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>44667</v>
+      </c>
+      <c r="B619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>44674</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44057</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44623</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5362,6 +5362,94 @@
         <v>44674</v>
       </c>
       <c r="B622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>44677</v>
+      </c>
+      <c r="B623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>44679</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>44681</v>
+      </c>
+      <c r="B625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>44683</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>44698</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B633">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B633"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1058,7 +1058,7 @@
         <v>44057</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,127 +5055,127 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44621</v>
+        <v>44619</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44643</v>
+        <v>44641</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44647</v>
+        <v>44645</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44698</v>
+        <v>44686</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44708</v>
+        <v>44701</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B632">
         <v>1</v>
@@ -5447,9 +5447,57 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
         <v>44712</v>
       </c>
-      <c r="B633">
+      <c r="B635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B639">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B596">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B602">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="B614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="B616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44686</v>
+        <v>44698</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44712</v>
+        <v>44734</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,17 +5487,25 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B640">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44734</v>
+        <v>44726</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,25 +5487,33 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B638">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
         <v>44742</v>
       </c>
-      <c r="B640">
+      <c r="B641">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B641"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -5514,6 +5514,14 @@
         <v>44742</v>
       </c>
       <c r="B641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B642">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B642"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5525,6 +5525,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44623</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5531,6 +5531,30 @@
       </c>
       <c r="B643">
         <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B646">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B646"/>
+  <dimension ref="A1:B647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5554,6 +5554,14 @@
         <v>44751</v>
       </c>
       <c r="B646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B647">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B647"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,39 +5055,39 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44621</v>
+        <v>44619</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B588">
         <v>3</v>
@@ -5095,87 +5095,87 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44643</v>
+        <v>44641</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44647</v>
+        <v>44645</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44698</v>
+        <v>44686</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44708</v>
+        <v>44701</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44726</v>
+        <v>44712</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44734</v>
+        <v>44714</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44735</v>
+        <v>44726</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,15 +5495,15 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44738</v>
+        <v>44735</v>
       </c>
       <c r="B639">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44739</v>
+        <v>44736</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,15 +5511,15 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44742</v>
+        <v>44738</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44745</v>
+        <v>44739</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44746</v>
+        <v>44742</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44749</v>
+        <v>44745</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44750</v>
+        <v>44746</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,18 +5551,82 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="B646">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
         <v>44753</v>
       </c>
-      <c r="B647">
-        <v>2</v>
+      <c r="B649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B652">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B655">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44623</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5626,7 +5626,39 @@
         <v>44761</v>
       </c>
       <c r="B655">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B656">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44766</v>
+      </c>
+      <c r="B659">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44766</v>
       </c>
       <c r="B659">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B596">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B602">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="B614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="B616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44686</v>
+        <v>44698</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44714</v>
+        <v>44726</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44726</v>
+        <v>44734</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -5503,23 +5503,23 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44742</v>
+        <v>44745</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44746</v>
+        <v>44749</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,15 +5559,15 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="B647">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -5575,15 +5575,15 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,23 +5591,23 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B652">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,31 +5615,31 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44759</v>
+        <v>44761</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B655">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B656">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -5647,18 +5647,50 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="B658">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="B659">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44621</v>
+        <v>44619</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44643</v>
+        <v>44641</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44647</v>
+        <v>44645</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44698</v>
+        <v>44686</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44708</v>
+        <v>44701</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44726</v>
+        <v>44714</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44734</v>
+        <v>44726</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -5503,23 +5503,23 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44742</v>
+        <v>44739</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44745</v>
+        <v>44742</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44749</v>
+        <v>44746</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,15 +5559,15 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B647">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44753</v>
+        <v>44751</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -5575,15 +5575,15 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,23 +5591,23 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="B651">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,31 +5615,31 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44761</v>
+        <v>44759</v>
       </c>
       <c r="B654">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B655">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B656">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -5647,23 +5647,23 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="B658">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B659">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44769</v>
+        <v>44767</v>
       </c>
       <c r="B660">
         <v>2</v>
@@ -5671,15 +5671,15 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44771</v>
+        <v>44769</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,9 +5687,25 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
         <v>44773</v>
       </c>
-      <c r="B663">
+      <c r="B664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B665">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44282</v>
       </c>
       <c r="B302">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5706,7 +5706,15 @@
         <v>44774</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B666">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B666"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44282</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5714,6 +5714,22 @@
         <v>44775</v>
       </c>
       <c r="B666">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B668">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B668"/>
+  <dimension ref="A1:B672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44623</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5731,6 +5731,38 @@
       </c>
       <c r="B668">
         <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B670">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B672"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44257</v>
       </c>
       <c r="B277">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44392</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44623</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44767</v>
       </c>
       <c r="B660">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5762,6 +5762,46 @@
         <v>44781</v>
       </c>
       <c r="B672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B673">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B676">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B677">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2602,7 +2602,7 @@
         <v>44257</v>
       </c>
       <c r="B277">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>44563</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -5802,6 +5802,14 @@
         <v>44787</v>
       </c>
       <c r="B677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B678">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B596">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B602">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="B614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="B616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44686</v>
+        <v>44698</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44714</v>
+        <v>44726</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44726</v>
+        <v>44734</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -5503,23 +5503,23 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44742</v>
+        <v>44745</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44746</v>
+        <v>44749</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,15 +5559,15 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="B647">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -5575,15 +5575,15 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,23 +5591,23 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B652">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,31 +5615,31 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44759</v>
+        <v>44761</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B655">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B656">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -5647,15 +5647,15 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="B658">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="B659">
         <v>3</v>
@@ -5663,23 +5663,23 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="B660">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -5695,87 +5695,87 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B666">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B671">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -5783,33 +5783,81 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B675">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B676">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B681">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B683">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B684">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B684"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44521</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44529</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44530</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44539</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44544</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,31 +5055,31 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44621</v>
+        <v>44619</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -5087,95 +5087,95 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44629</v>
+        <v>44628</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44633</v>
+        <v>44632</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44634</v>
+        <v>44633</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44643</v>
+        <v>44641</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44647</v>
+        <v>44645</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44655</v>
+        <v>44651</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44662</v>
+        <v>44657</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44698</v>
+        <v>44686</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44708</v>
+        <v>44701</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44726</v>
+        <v>44714</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44734</v>
+        <v>44726</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -5503,23 +5503,23 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44742</v>
+        <v>44739</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44745</v>
+        <v>44742</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44749</v>
+        <v>44746</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,15 +5559,15 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="B647">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44753</v>
+        <v>44751</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -5575,15 +5575,15 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44754</v>
+        <v>44753</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44755</v>
+        <v>44754</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,23 +5591,23 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="B651">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,31 +5615,31 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44761</v>
+        <v>44759</v>
       </c>
       <c r="B654">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="B655">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="B656">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -5647,15 +5647,15 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44766</v>
+        <v>44764</v>
       </c>
       <c r="B658">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="B659">
         <v>3</v>
@@ -5663,23 +5663,23 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44769</v>
+        <v>44767</v>
       </c>
       <c r="B660">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44771</v>
+        <v>44769</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44772</v>
+        <v>44771</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44773</v>
+        <v>44772</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -5695,87 +5695,87 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44774</v>
+        <v>44773</v>
       </c>
       <c r="B664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44775</v>
+        <v>44774</v>
       </c>
       <c r="B665">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B667">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B670">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44782</v>
+        <v>44781</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44783</v>
+        <v>44782</v>
       </c>
       <c r="B673">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44785</v>
+        <v>44783</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -5783,39 +5783,39 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B675">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44787</v>
+        <v>44786</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44788</v>
+        <v>44787</v>
       </c>
       <c r="B677">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44789</v>
+        <v>44788</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44791</v>
+        <v>44789</v>
       </c>
       <c r="B679">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -5831,23 +5831,23 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
       <c r="B681">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
       <c r="B682">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -5855,9 +5855,73 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
         <v>44796</v>
       </c>
-      <c r="B684">
+      <c r="B685">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B689">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44801</v>
+      </c>
+      <c r="B690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B692">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44581</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -5923,6 +5923,38 @@
       </c>
       <c r="B692">
         <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B694">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B696">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B696"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44581</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -5955,6 +5955,62 @@
       </c>
       <c r="B696">
         <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44808</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B702">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44581</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -6011,6 +6011,38 @@
       </c>
       <c r="B703">
         <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44822</v>
+      </c>
+      <c r="B707">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B707"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44581</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -6042,7 +6042,39 @@
         <v>44822</v>
       </c>
       <c r="B707">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B711"/>
+  <dimension ref="A1:B712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>44461</v>
       </c>
       <c r="B477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6074,6 +6074,14 @@
         <v>44829</v>
       </c>
       <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B712">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B712"/>
+  <dimension ref="A1:B714"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -4519,23 +4519,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -4543,39 +4543,39 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44539</v>
+        <v>44543</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -4663,15 +4663,15 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44563</v>
+        <v>44567</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B536">
         <v>3</v>
@@ -4679,71 +4679,71 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B541">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B543">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B544">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -4751,63 +4751,63 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B548">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B549">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B550">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B553">
         <v>7</v>
@@ -4815,79 +4815,79 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B554">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B556">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B557">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B559">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B561">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B562">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B563">
         <v>5</v>
@@ -4895,87 +4895,87 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B564">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B565">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B566">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B567">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B572">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B574">
         <v>3</v>
@@ -4983,23 +4983,23 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B575">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B576">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B577">
         <v>7</v>
@@ -5007,15 +5007,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B579">
         <v>4</v>
@@ -5023,31 +5023,31 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B582">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B583">
         <v>3</v>
@@ -5055,127 +5055,127 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B584">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="B585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B590">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B596">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -5191,55 +5191,55 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B602">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44641</v>
+        <v>44643</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,31 +5247,31 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,55 +5279,55 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44651</v>
+        <v>44655</v>
       </c>
       <c r="B614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44657</v>
+        <v>44662</v>
       </c>
       <c r="B616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,23 +5343,23 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44674</v>
+        <v>44677</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,23 +5391,23 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44686</v>
+        <v>44698</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44701</v>
+        <v>44708</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,23 +5439,23 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44714</v>
+        <v>44726</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44726</v>
+        <v>44734</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -5503,23 +5503,23 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44742</v>
+        <v>44745</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44746</v>
+        <v>44749</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,15 +5559,15 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="B647">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -5575,15 +5575,15 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,23 +5591,23 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B652">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,31 +5615,31 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44759</v>
+        <v>44761</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B655">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B656">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -5647,15 +5647,15 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="B658">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="B659">
         <v>3</v>
@@ -5663,23 +5663,23 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="B660">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44771</v>
+        <v>44772</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -5695,87 +5695,87 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B666">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B671">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -5783,39 +5783,39 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B675">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B676">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B678">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="B679">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -5831,23 +5831,23 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -5855,23 +5855,23 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B684">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B685">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -5887,31 +5887,31 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B689">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B690">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -5927,15 +5927,15 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B694">
         <v>3</v>
@@ -5943,23 +5943,23 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B695">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B696">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -5999,23 +5999,23 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44813</v>
+        <v>44815</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="B704">
         <v>2</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B705">
         <v>2</v>
@@ -6031,23 +6031,23 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44819</v>
+        <v>44822</v>
       </c>
       <c r="B706">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="B707">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44825</v>
+        <v>44827</v>
       </c>
       <c r="B708">
         <v>2</v>
@@ -6055,15 +6055,15 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B709">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44829</v>
+        <v>44832</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,9 +6079,25 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44832</v>
+        <v>44840</v>
       </c>
       <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B714">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B714"/>
+  <dimension ref="A1:B716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6042,7 +6042,7 @@
         <v>44825</v>
       </c>
       <c r="B707">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6071,7 +6071,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44832</v>
+        <v>44835</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44840</v>
+        <v>44836</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,17 +6087,33 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B713">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44845</v>
+        <v>44840</v>
       </c>
       <c r="B714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B716">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B716"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5943,15 +5943,15 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44807</v>
+        <v>44809</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44808</v>
+        <v>44810</v>
       </c>
       <c r="B696">
         <v>1</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44809</v>
+        <v>44812</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -5967,15 +5967,15 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44810</v>
+        <v>44813</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44811</v>
+        <v>44815</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -5983,31 +5983,31 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44812</v>
+        <v>44816</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44813</v>
+        <v>44818</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44815</v>
+        <v>44819</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44816</v>
+        <v>44822</v>
       </c>
       <c r="B703">
         <v>2</v>
@@ -6015,15 +6015,15 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44818</v>
+        <v>44825</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44819</v>
+        <v>44827</v>
       </c>
       <c r="B705">
         <v>2</v>
@@ -6031,31 +6031,31 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44822</v>
+        <v>44828</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44825</v>
+        <v>44829</v>
       </c>
       <c r="B707">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44827</v>
+        <v>44835</v>
       </c>
       <c r="B708">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44828</v>
+        <v>44836</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44829</v>
+        <v>44838</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,15 +6071,15 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44835</v>
+        <v>44840</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44836</v>
+        <v>44841</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,33 +6087,9 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44838</v>
+        <v>44847</v>
       </c>
       <c r="B713">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="2">
-        <v>44840</v>
-      </c>
-      <c r="B714">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2">
-      <c r="A715" s="2">
-        <v>44841</v>
-      </c>
-      <c r="B715">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" s="2">
-        <v>44847</v>
-      </c>
-      <c r="B716">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B709"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5666,7 +5666,7 @@
         <v>44769</v>
       </c>
       <c r="B660">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5679,39 +5679,39 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44772</v>
+        <v>44773</v>
       </c>
       <c r="B662">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B664">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B665">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44776</v>
+        <v>44778</v>
       </c>
       <c r="B666">
         <v>1</v>
@@ -5719,31 +5719,31 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44777</v>
+        <v>44779</v>
       </c>
       <c r="B667">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44778</v>
+        <v>44780</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44780</v>
+        <v>44782</v>
       </c>
       <c r="B670">
         <v>2</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44781</v>
+        <v>44783</v>
       </c>
       <c r="B671">
         <v>1</v>
@@ -5759,39 +5759,39 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44782</v>
+        <v>44785</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44783</v>
+        <v>44786</v>
       </c>
       <c r="B673">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44785</v>
+        <v>44787</v>
       </c>
       <c r="B674">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="B675">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44787</v>
+        <v>44789</v>
       </c>
       <c r="B676">
         <v>1</v>
@@ -5799,31 +5799,31 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44788</v>
+        <v>44791</v>
       </c>
       <c r="B677">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44789</v>
+        <v>44792</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44791</v>
+        <v>44793</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44792</v>
+        <v>44794</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -5831,31 +5831,31 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44793</v>
+        <v>44795</v>
       </c>
       <c r="B681">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44794</v>
+        <v>44796</v>
       </c>
       <c r="B682">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44795</v>
+        <v>44797</v>
       </c>
       <c r="B683">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44796</v>
+        <v>44800</v>
       </c>
       <c r="B684">
         <v>3</v>
@@ -5863,15 +5863,15 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44797</v>
+        <v>44801</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44798</v>
+        <v>44802</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -5887,31 +5887,31 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44800</v>
+        <v>44804</v>
       </c>
       <c r="B688">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44801</v>
+        <v>44805</v>
       </c>
       <c r="B689">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44802</v>
+        <v>44806</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44803</v>
+        <v>44809</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44804</v>
+        <v>44810</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -5927,23 +5927,23 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44805</v>
+        <v>44812</v>
       </c>
       <c r="B693">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44806</v>
+        <v>44813</v>
       </c>
       <c r="B694">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44809</v>
+        <v>44815</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -5951,23 +5951,23 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44810</v>
+        <v>44816</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44812</v>
+        <v>44818</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44813</v>
+        <v>44819</v>
       </c>
       <c r="B698">
         <v>2</v>
@@ -5975,23 +5975,23 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44815</v>
+        <v>44822</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44816</v>
+        <v>44825</v>
       </c>
       <c r="B700">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44818</v>
+        <v>44827</v>
       </c>
       <c r="B701">
         <v>2</v>
@@ -5999,39 +5999,39 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44819</v>
+        <v>44828</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44822</v>
+        <v>44829</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44825</v>
+        <v>44835</v>
       </c>
       <c r="B704">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44827</v>
+        <v>44836</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44828</v>
+        <v>44838</v>
       </c>
       <c r="B706">
         <v>1</v>
@@ -6039,15 +6039,15 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44829</v>
+        <v>44840</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44835</v>
+        <v>44841</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -6055,41 +6055,9 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44836</v>
+        <v>44847</v>
       </c>
       <c r="B709">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="2">
-        <v>44838</v>
-      </c>
-      <c r="B710">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2">
-      <c r="A711" s="2">
-        <v>44840</v>
-      </c>
-      <c r="B711">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="2">
-        <v>44841</v>
-      </c>
-      <c r="B712">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2">
-      <c r="A713" s="2">
-        <v>44847</v>
-      </c>
-      <c r="B713">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B709"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5626,7 +5626,7 @@
         <v>44762</v>
       </c>
       <c r="B655">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44763</v>
       </c>
       <c r="B656">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44764</v>
       </c>
       <c r="B657">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -6058,6 +6058,14 @@
         <v>44847</v>
       </c>
       <c r="B709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B710">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>43898</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>43907</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>43914</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>43917</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>43923</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>43927</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>43932</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>43943</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>43944</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>43952</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>43958</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>43963</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>43964</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43966</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43968</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43970</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>43974</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>43975</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>43977</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>43978</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>43980</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>43985</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>43986</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>43987</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>43989</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>43991</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>43993</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>43994</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>43995</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>43997</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>43999</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>44000</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>44001</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44007</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44008</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44009</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>44010</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>44011</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>44012</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>44013</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>44014</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>44015</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>44016</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44017</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>44019</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>44020</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44021</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44022</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>44023</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>44024</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>44025</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44026</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44027</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44028</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44029</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44030</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44031</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44032</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44033</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44034</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44035</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44036</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>44037</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44038</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44039</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44040</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44041</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44042</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44043</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44045</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44046</v>
       </c>
       <c r="B73">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>44048</v>
       </c>
       <c r="B75">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>44049</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44050</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>44051</v>
       </c>
       <c r="B78">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44053</v>
       </c>
       <c r="B80">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44054</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44055</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44056</v>
       </c>
       <c r="B83">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44057</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44058</v>
       </c>
       <c r="B85">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44059</v>
       </c>
       <c r="B86">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44060</v>
       </c>
       <c r="B87">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>44061</v>
       </c>
       <c r="B88">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>44062</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44063</v>
       </c>
       <c r="B90">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44064</v>
       </c>
       <c r="B91">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44065</v>
       </c>
       <c r="B92">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44066</v>
       </c>
       <c r="B93">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>44067</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44068</v>
       </c>
       <c r="B95">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>44069</v>
       </c>
       <c r="B96">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44070</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44071</v>
       </c>
       <c r="B98">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44072</v>
       </c>
       <c r="B99">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44074</v>
       </c>
       <c r="B101">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44075</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>44076</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>44077</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44078</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44079</v>
       </c>
       <c r="B106">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44080</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44081</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>44082</v>
       </c>
       <c r="B109">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>44083</v>
       </c>
       <c r="B110">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44084</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>44085</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44086</v>
       </c>
       <c r="B113">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44087</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44088</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44089</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44090</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44091</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>44092</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44093</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>44094</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44095</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>44096</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>44097</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>44098</v>
       </c>
       <c r="B125">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44099</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44100</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>44101</v>
       </c>
       <c r="B128">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44102</v>
       </c>
       <c r="B129">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44103</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>44104</v>
       </c>
       <c r="B131">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44105</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44106</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44107</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44108</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>44109</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44110</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44111</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44112</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>44113</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44114</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44115</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44116</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>44117</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>44118</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44119</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>44120</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44121</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44122</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44123</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>44124</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44125</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44126</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>44127</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44128</v>
       </c>
       <c r="B155">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>44129</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>44130</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44131</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44132</v>
       </c>
       <c r="B159">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44133</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44134</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>44135</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>44136</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44137</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>44138</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>44139</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44140</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44141</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>44142</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44143</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44144</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44145</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44146</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44147</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44148</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>44149</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>44150</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44151</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>44152</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44153</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>44154</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44156</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44158</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>44159</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>44160</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>44161</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44162</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>44165</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44166</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>44167</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44168</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44169</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>44170</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44172</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>44173</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>44174</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44175</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44176</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>44177</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44178</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44179</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44180</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44181</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44182</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44183</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>44185</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44186</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44188</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>44189</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>44190</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>44193</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44194</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>44195</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>44196</v>
       </c>
       <c r="B216">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44197</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44198</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>44199</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>44200</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44201</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>44202</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44203</v>
       </c>
       <c r="B223">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>44204</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44205</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>44206</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44207</v>
       </c>
       <c r="B227">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44208</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44209</v>
       </c>
       <c r="B229">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>44210</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>44211</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44212</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44213</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44214</v>
       </c>
       <c r="B234">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44215</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44216</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>44217</v>
       </c>
       <c r="B237">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44218</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44219</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44220</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44221</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44222</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44223</v>
       </c>
       <c r="B243">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44224</v>
       </c>
       <c r="B244">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44225</v>
       </c>
       <c r="B245">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44226</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44227</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44228</v>
       </c>
       <c r="B248">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44229</v>
       </c>
       <c r="B249">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44230</v>
       </c>
       <c r="B250">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44231</v>
       </c>
       <c r="B251">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44232</v>
       </c>
       <c r="B252">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44233</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44234</v>
       </c>
       <c r="B254">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44235</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44236</v>
       </c>
       <c r="B256">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44237</v>
       </c>
       <c r="B257">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44238</v>
       </c>
       <c r="B258">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44239</v>
       </c>
       <c r="B259">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44240</v>
       </c>
       <c r="B260">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44241</v>
       </c>
       <c r="B261">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44242</v>
       </c>
       <c r="B262">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44243</v>
       </c>
       <c r="B263">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44244</v>
       </c>
       <c r="B264">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>44245</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44246</v>
       </c>
       <c r="B266">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>44247</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44248</v>
       </c>
       <c r="B268">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>44249</v>
       </c>
       <c r="B269">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>44250</v>
       </c>
       <c r="B270">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44251</v>
       </c>
       <c r="B271">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>44252</v>
       </c>
       <c r="B272">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44253</v>
       </c>
       <c r="B273">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44254</v>
       </c>
       <c r="B274">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44255</v>
       </c>
       <c r="B275">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44256</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44257</v>
       </c>
       <c r="B277">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>44258</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44259</v>
       </c>
       <c r="B279">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>44260</v>
       </c>
       <c r="B280">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44261</v>
       </c>
       <c r="B281">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44262</v>
       </c>
       <c r="B282">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44263</v>
       </c>
       <c r="B283">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44264</v>
       </c>
       <c r="B284">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>44266</v>
       </c>
       <c r="B286">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>44267</v>
       </c>
       <c r="B287">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>44268</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>44269</v>
       </c>
       <c r="B289">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>44270</v>
       </c>
       <c r="B290">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>44271</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44272</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>44273</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>44274</v>
       </c>
       <c r="B294">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44275</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44276</v>
       </c>
       <c r="B296">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>44277</v>
       </c>
       <c r="B297">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44278</v>
       </c>
       <c r="B298">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>44279</v>
       </c>
       <c r="B299">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>44280</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44281</v>
       </c>
       <c r="B301">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44282</v>
       </c>
       <c r="B302">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44283</v>
       </c>
       <c r="B303">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44285</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>44286</v>
       </c>
       <c r="B306">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>44287</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>44288</v>
       </c>
       <c r="B308">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44289</v>
       </c>
       <c r="B309">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>44290</v>
       </c>
       <c r="B310">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44291</v>
       </c>
       <c r="B311">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44292</v>
       </c>
       <c r="B312">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44293</v>
       </c>
       <c r="B313">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44294</v>
       </c>
       <c r="B314">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44295</v>
       </c>
       <c r="B315">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44296</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44297</v>
       </c>
       <c r="B317">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44298</v>
       </c>
       <c r="B318">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44299</v>
       </c>
       <c r="B319">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44300</v>
       </c>
       <c r="B320">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44301</v>
       </c>
       <c r="B321">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44302</v>
       </c>
       <c r="B322">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>44303</v>
       </c>
       <c r="B323">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>44304</v>
       </c>
       <c r="B324">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>44305</v>
       </c>
       <c r="B325">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>44306</v>
       </c>
       <c r="B326">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>44307</v>
       </c>
       <c r="B327">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44308</v>
       </c>
       <c r="B328">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>44309</v>
       </c>
       <c r="B329">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>44310</v>
       </c>
       <c r="B330">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>44311</v>
       </c>
       <c r="B331">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>44312</v>
       </c>
       <c r="B332">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44313</v>
       </c>
       <c r="B333">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>44314</v>
       </c>
       <c r="B334">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44315</v>
       </c>
       <c r="B335">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>44316</v>
       </c>
       <c r="B336">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44317</v>
       </c>
       <c r="B337">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>44318</v>
       </c>
       <c r="B338">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>44319</v>
       </c>
       <c r="B339">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>44320</v>
       </c>
       <c r="B340">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44321</v>
       </c>
       <c r="B341">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44323</v>
       </c>
       <c r="B343">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>44324</v>
       </c>
       <c r="B344">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44325</v>
       </c>
       <c r="B345">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44326</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>44327</v>
       </c>
       <c r="B347">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44328</v>
       </c>
       <c r="B348">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>44329</v>
       </c>
       <c r="B349">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>44330</v>
       </c>
       <c r="B350">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44331</v>
       </c>
       <c r="B351">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44333</v>
       </c>
       <c r="B353">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>44334</v>
       </c>
       <c r="B354">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44335</v>
       </c>
       <c r="B355">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44336</v>
       </c>
       <c r="B356">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44337</v>
       </c>
       <c r="B357">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44339</v>
       </c>
       <c r="B359">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>44340</v>
       </c>
       <c r="B360">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>44341</v>
       </c>
       <c r="B361">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>44342</v>
       </c>
       <c r="B362">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>44343</v>
       </c>
       <c r="B363">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>44344</v>
       </c>
       <c r="B364">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>44345</v>
       </c>
       <c r="B365">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44346</v>
       </c>
       <c r="B366">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>44347</v>
       </c>
       <c r="B367">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>44348</v>
       </c>
       <c r="B368">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44349</v>
       </c>
       <c r="B369">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44350</v>
       </c>
       <c r="B370">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>44351</v>
       </c>
       <c r="B371">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>44352</v>
       </c>
       <c r="B372">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>44353</v>
       </c>
       <c r="B373">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44354</v>
       </c>
       <c r="B374">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44355</v>
       </c>
       <c r="B375">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>44356</v>
       </c>
       <c r="B376">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>44357</v>
       </c>
       <c r="B377">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>44358</v>
       </c>
       <c r="B378">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44359</v>
       </c>
       <c r="B379">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44360</v>
       </c>
       <c r="B380">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>44361</v>
       </c>
       <c r="B381">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>44362</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>44363</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>44364</v>
       </c>
       <c r="B384">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44365</v>
       </c>
       <c r="B385">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>44366</v>
       </c>
       <c r="B386">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44367</v>
       </c>
       <c r="B387">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44368</v>
       </c>
       <c r="B388">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44369</v>
       </c>
       <c r="B389">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>44370</v>
       </c>
       <c r="B390">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44371</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>44372</v>
       </c>
       <c r="B392">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>44373</v>
       </c>
       <c r="B393">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>44374</v>
       </c>
       <c r="B394">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>44375</v>
       </c>
       <c r="B395">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>44376</v>
       </c>
       <c r="B396">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44377</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>44378</v>
       </c>
       <c r="B398">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44379</v>
       </c>
       <c r="B399">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44380</v>
       </c>
       <c r="B400">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44381</v>
       </c>
       <c r="B401">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44382</v>
       </c>
       <c r="B402">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44383</v>
       </c>
       <c r="B403">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44384</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44385</v>
       </c>
       <c r="B405">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44386</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44387</v>
       </c>
       <c r="B407">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44388</v>
       </c>
       <c r="B408">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44389</v>
       </c>
       <c r="B409">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44390</v>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44391</v>
       </c>
       <c r="B411">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44392</v>
       </c>
       <c r="B412">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44393</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44395</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44396</v>
       </c>
       <c r="B416">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44397</v>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44398</v>
       </c>
       <c r="B418">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>44399</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44400</v>
       </c>
       <c r="B420">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>44401</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>44402</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>44403</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>44404</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>44405</v>
       </c>
       <c r="B425">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44406</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>44407</v>
       </c>
       <c r="B427">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44408</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>44409</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44410</v>
       </c>
       <c r="B430">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44411</v>
       </c>
       <c r="B431">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44412</v>
       </c>
       <c r="B432">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44413</v>
       </c>
       <c r="B433">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44414</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44415</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44416</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44417</v>
       </c>
       <c r="B437">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44418</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44419</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44420</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44421</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44422</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44423</v>
       </c>
       <c r="B443">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44424</v>
       </c>
       <c r="B444">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44425</v>
       </c>
       <c r="B445">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44426</v>
       </c>
       <c r="B446">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44427</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44428</v>
       </c>
       <c r="B448">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44429</v>
       </c>
       <c r="B449">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44430</v>
       </c>
       <c r="B450">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44431</v>
       </c>
       <c r="B451">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44432</v>
       </c>
       <c r="B452">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44434</v>
       </c>
       <c r="B453">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44435</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44436</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44437</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>44438</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44440</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>44441</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>44442</v>
       </c>
       <c r="B460">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>44443</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>44444</v>
       </c>
       <c r="B462">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>44445</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>44446</v>
       </c>
       <c r="B464">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>44447</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>44448</v>
       </c>
       <c r="B466">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>44449</v>
       </c>
       <c r="B467">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44450</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>44451</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>44452</v>
       </c>
       <c r="B470">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>44453</v>
       </c>
       <c r="B471">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>44454</v>
       </c>
       <c r="B472">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>44456</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>44457</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>44458</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>44459</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>44461</v>
       </c>
       <c r="B477">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>44462</v>
       </c>
       <c r="B478">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>44464</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>44466</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>44467</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>44468</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>44470</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>44471</v>
       </c>
       <c r="B484">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>44472</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>44473</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>44475</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>44476</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>44477</v>
       </c>
       <c r="B489">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>44478</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>44480</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>44481</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>44484</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>44485</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>44486</v>
       </c>
       <c r="B495">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>44487</v>
       </c>
       <c r="B496">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>44488</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>44491</v>
       </c>
       <c r="B498">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>44493</v>
       </c>
       <c r="B499">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>44494</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>44495</v>
       </c>
       <c r="B501">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44499</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>44501</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>44504</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>44505</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>44506</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>44507</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>44508</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>44511</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>44512</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>44514</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>44515</v>
       </c>
       <c r="B512">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>44517</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>44524</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>44525</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>44527</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>44528</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>44529</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>44530</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>44531</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>44536</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>44537</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>44538</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>44539</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>44543</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>44544</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>44547</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>44550</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>44551</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>44552</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>44553</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>44556</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>44562</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>44563</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>44567</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>44570</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>44571</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>44572</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>44573</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>44574</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>44575</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>44576</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>44577</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>44578</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>44579</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>44580</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44582</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44583</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>44584</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>44585</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>44586</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>44587</v>
       </c>
       <c r="B553">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>44588</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>44589</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>44590</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>44591</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>44592</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>44593</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>44594</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>44595</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44596</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>44597</v>
       </c>
       <c r="B563">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>44598</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44599</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>44600</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44601</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44602</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>44603</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>44604</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>44605</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>44606</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>44607</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>44608</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>44609</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>44610</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>44611</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>44612</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>44613</v>
       </c>
       <c r="B579">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>44614</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44615</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>44616</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>44618</v>
       </c>
       <c r="B583">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>44619</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>44621</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>44622</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44623</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44624</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>44625</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>44626</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>44627</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>44628</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>44629</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>44630</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>44631</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44632</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>44633</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>44634</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>44635</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>44636</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>44637</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>44638</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>44639</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>44640</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>44641</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>44643</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>44644</v>
       </c>
       <c r="B607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>44645</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5258,7 +5258,7 @@
         <v>44647</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5266,7 +5266,7 @@
         <v>44648</v>
       </c>
       <c r="B610">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>44649</v>
       </c>
       <c r="B611">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>44651</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44655</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>44657</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5314,7 +5314,7 @@
         <v>44662</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>44663</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5330,7 +5330,7 @@
         <v>44666</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>44667</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>44669</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>44671</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>44674</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5370,7 +5370,7 @@
         <v>44677</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44679</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44681</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44682</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>44683</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44686</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5418,7 +5418,7 @@
         <v>44698</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>44701</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44708</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44709</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44710</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>44712</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44726</v>
       </c>
       <c r="B636">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44734</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>44735</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44736</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44738</v>
       </c>
       <c r="B640">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>44739</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44742</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44745</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>44746</v>
       </c>
       <c r="B644">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>44749</v>
       </c>
       <c r="B645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5554,7 +5554,7 @@
         <v>44750</v>
       </c>
       <c r="B646">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44751</v>
       </c>
       <c r="B647">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>44753</v>
       </c>
       <c r="B648">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5578,7 +5578,7 @@
         <v>44754</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44755</v>
       </c>
       <c r="B650">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44757</v>
       </c>
       <c r="B651">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>44758</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44759</v>
       </c>
       <c r="B653">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>44761</v>
       </c>
       <c r="B654">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44762</v>
       </c>
       <c r="B655">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44763</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44764</v>
       </c>
       <c r="B657">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>44766</v>
       </c>
       <c r="B658">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44767</v>
       </c>
       <c r="B659">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44769</v>
       </c>
       <c r="B660">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44771</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>44773</v>
       </c>
       <c r="B662">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>44774</v>
       </c>
       <c r="B663">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44775</v>
       </c>
       <c r="B664">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>44777</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>44778</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>44779</v>
       </c>
       <c r="B667">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>44780</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>44781</v>
       </c>
       <c r="B669">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5746,7 +5746,7 @@
         <v>44782</v>
       </c>
       <c r="B670">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>44783</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>44785</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>44786</v>
       </c>
       <c r="B673">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>44787</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>44788</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>44789</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5802,7 +5802,7 @@
         <v>44791</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>44792</v>
       </c>
       <c r="B678">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>44793</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>44794</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>44795</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5842,7 +5842,7 @@
         <v>44796</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5850,7 +5850,7 @@
         <v>44797</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5858,7 +5858,7 @@
         <v>44800</v>
       </c>
       <c r="B684">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5866,7 +5866,7 @@
         <v>44801</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>44802</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>44803</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>44804</v>
       </c>
       <c r="B688">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5898,7 +5898,7 @@
         <v>44805</v>
       </c>
       <c r="B689">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5906,7 +5906,7 @@
         <v>44806</v>
       </c>
       <c r="B690">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>44809</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>44810</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5930,7 +5930,7 @@
         <v>44812</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5938,7 +5938,7 @@
         <v>44813</v>
       </c>
       <c r="B694">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5946,7 +5946,7 @@
         <v>44815</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5954,7 +5954,7 @@
         <v>44816</v>
       </c>
       <c r="B696">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5962,7 +5962,7 @@
         <v>44818</v>
       </c>
       <c r="B697">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5970,7 +5970,7 @@
         <v>44819</v>
       </c>
       <c r="B698">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5978,7 +5978,7 @@
         <v>44822</v>
       </c>
       <c r="B699">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5986,7 +5986,7 @@
         <v>44825</v>
       </c>
       <c r="B700">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5994,7 +5994,7 @@
         <v>44827</v>
       </c>
       <c r="B701">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -6002,7 +6002,7 @@
         <v>44828</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6010,7 +6010,7 @@
         <v>44829</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>44835</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6026,7 +6026,7 @@
         <v>44836</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>44838</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6042,7 +6042,7 @@
         <v>44840</v>
       </c>
       <c r="B707">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6050,7 +6050,7 @@
         <v>44841</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6058,7 +6058,7 @@
         <v>44847</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6066,7 +6066,15 @@
         <v>44878</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -402,7 +402,7 @@
         <v>43898</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>43907</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>43914</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>43917</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>43923</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>43927</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>43932</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>43943</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>43944</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>43952</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>43958</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>43963</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>43964</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43966</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43968</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43970</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>43974</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>43975</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>43977</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>43978</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>43980</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>43985</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>43986</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>43987</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>43989</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>43991</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>43993</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>43994</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>43995</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>43997</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>43999</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>44000</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>44001</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44007</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44008</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44009</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>44010</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>44011</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>44012</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>44013</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>44014</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>44015</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>44016</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44017</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>44019</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>44020</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44021</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44022</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>44023</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>44024</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>44025</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44026</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44027</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44028</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44029</v>
       </c>
       <c r="B56">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44030</v>
       </c>
       <c r="B57">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44031</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44032</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44033</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44034</v>
       </c>
       <c r="B61">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44035</v>
       </c>
       <c r="B62">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44036</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>44037</v>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44038</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44039</v>
       </c>
       <c r="B66">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44040</v>
       </c>
       <c r="B67">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44041</v>
       </c>
       <c r="B68">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44042</v>
       </c>
       <c r="B69">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44043</v>
       </c>
       <c r="B70">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44045</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44046</v>
       </c>
       <c r="B73">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>44048</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>44049</v>
       </c>
       <c r="B76">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44050</v>
       </c>
       <c r="B77">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>44051</v>
       </c>
       <c r="B78">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44053</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44054</v>
       </c>
       <c r="B81">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44055</v>
       </c>
       <c r="B82">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44056</v>
       </c>
       <c r="B83">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44057</v>
       </c>
       <c r="B84">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44058</v>
       </c>
       <c r="B85">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44059</v>
       </c>
       <c r="B86">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44060</v>
       </c>
       <c r="B87">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>44061</v>
       </c>
       <c r="B88">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>44062</v>
       </c>
       <c r="B89">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44063</v>
       </c>
       <c r="B90">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44064</v>
       </c>
       <c r="B91">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44065</v>
       </c>
       <c r="B92">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44066</v>
       </c>
       <c r="B93">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>44067</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44068</v>
       </c>
       <c r="B95">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>44069</v>
       </c>
       <c r="B96">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44070</v>
       </c>
       <c r="B97">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44071</v>
       </c>
       <c r="B98">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44072</v>
       </c>
       <c r="B99">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44074</v>
       </c>
       <c r="B101">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44075</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>44076</v>
       </c>
       <c r="B103">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>44077</v>
       </c>
       <c r="B104">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44078</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44079</v>
       </c>
       <c r="B106">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44080</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44081</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>44082</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>44083</v>
       </c>
       <c r="B110">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44084</v>
       </c>
       <c r="B111">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>44085</v>
       </c>
       <c r="B112">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44086</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44087</v>
       </c>
       <c r="B114">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44088</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44089</v>
       </c>
       <c r="B116">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44090</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44091</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>44092</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44093</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>44094</v>
       </c>
       <c r="B121">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44095</v>
       </c>
       <c r="B122">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>44096</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>44097</v>
       </c>
       <c r="B124">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>44098</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44099</v>
       </c>
       <c r="B126">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44100</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>44101</v>
       </c>
       <c r="B128">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44102</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44103</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>44104</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44105</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44106</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44107</v>
       </c>
       <c r="B134">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44108</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>44109</v>
       </c>
       <c r="B136">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44110</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44111</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44112</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>44113</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44114</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44115</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44116</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>44117</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>44118</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44119</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>44120</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44121</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44122</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44123</v>
       </c>
       <c r="B150">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>44124</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44125</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44126</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>44127</v>
       </c>
       <c r="B154">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44128</v>
       </c>
       <c r="B155">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>44129</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>44130</v>
       </c>
       <c r="B157">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44131</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44132</v>
       </c>
       <c r="B159">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44133</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44134</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>44135</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>44136</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44137</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>44138</v>
       </c>
       <c r="B165">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>44139</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44140</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44141</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>44142</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44143</v>
       </c>
       <c r="B170">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44144</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44145</v>
       </c>
       <c r="B172">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44146</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44147</v>
       </c>
       <c r="B174">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44148</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>44149</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>44150</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44151</v>
       </c>
       <c r="B178">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>44152</v>
       </c>
       <c r="B179">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44153</v>
       </c>
       <c r="B180">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>44154</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44156</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44158</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>44159</v>
       </c>
       <c r="B184">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>44160</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>44161</v>
       </c>
       <c r="B186">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44162</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>44165</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44166</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>44167</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44168</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44169</v>
       </c>
       <c r="B193">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>44170</v>
       </c>
       <c r="B194">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44172</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>44173</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>44174</v>
       </c>
       <c r="B197">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44175</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44176</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>44177</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44178</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44179</v>
       </c>
       <c r="B202">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44180</v>
       </c>
       <c r="B203">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44181</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44182</v>
       </c>
       <c r="B205">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44183</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>44185</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44186</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44188</v>
       </c>
       <c r="B210">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>44189</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>44190</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>44193</v>
       </c>
       <c r="B213">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44194</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>44195</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>44196</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44197</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44198</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>44199</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>44200</v>
       </c>
       <c r="B220">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44201</v>
       </c>
       <c r="B221">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>44202</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44203</v>
       </c>
       <c r="B223">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>44204</v>
       </c>
       <c r="B224">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44205</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>44206</v>
       </c>
       <c r="B226">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44207</v>
       </c>
       <c r="B227">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44208</v>
       </c>
       <c r="B228">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44209</v>
       </c>
       <c r="B229">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>44210</v>
       </c>
       <c r="B230">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>44211</v>
       </c>
       <c r="B231">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44212</v>
       </c>
       <c r="B232">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44213</v>
       </c>
       <c r="B233">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44214</v>
       </c>
       <c r="B234">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44215</v>
       </c>
       <c r="B235">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44216</v>
       </c>
       <c r="B236">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>44217</v>
       </c>
       <c r="B237">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44218</v>
       </c>
       <c r="B238">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44219</v>
       </c>
       <c r="B239">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44220</v>
       </c>
       <c r="B240">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44221</v>
       </c>
       <c r="B241">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44222</v>
       </c>
       <c r="B242">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44223</v>
       </c>
       <c r="B243">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44224</v>
       </c>
       <c r="B244">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44225</v>
       </c>
       <c r="B245">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44226</v>
       </c>
       <c r="B246">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44227</v>
       </c>
       <c r="B247">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44228</v>
       </c>
       <c r="B248">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44229</v>
       </c>
       <c r="B249">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44230</v>
       </c>
       <c r="B250">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44231</v>
       </c>
       <c r="B251">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44232</v>
       </c>
       <c r="B252">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44233</v>
       </c>
       <c r="B253">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44234</v>
       </c>
       <c r="B254">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44235</v>
       </c>
       <c r="B255">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44236</v>
       </c>
       <c r="B256">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44237</v>
       </c>
       <c r="B257">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44238</v>
       </c>
       <c r="B258">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44239</v>
       </c>
       <c r="B259">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44240</v>
       </c>
       <c r="B260">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44241</v>
       </c>
       <c r="B261">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44242</v>
       </c>
       <c r="B262">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44243</v>
       </c>
       <c r="B263">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44244</v>
       </c>
       <c r="B264">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>44245</v>
       </c>
       <c r="B265">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44246</v>
       </c>
       <c r="B266">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>44247</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44248</v>
       </c>
       <c r="B268">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>44249</v>
       </c>
       <c r="B269">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>44250</v>
       </c>
       <c r="B270">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44251</v>
       </c>
       <c r="B271">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>44252</v>
       </c>
       <c r="B272">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44253</v>
       </c>
       <c r="B273">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44254</v>
       </c>
       <c r="B274">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44255</v>
       </c>
       <c r="B275">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44256</v>
       </c>
       <c r="B276">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44257</v>
       </c>
       <c r="B277">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>44258</v>
       </c>
       <c r="B278">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44259</v>
       </c>
       <c r="B279">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>44260</v>
       </c>
       <c r="B280">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44261</v>
       </c>
       <c r="B281">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44262</v>
       </c>
       <c r="B282">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44263</v>
       </c>
       <c r="B283">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44264</v>
       </c>
       <c r="B284">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44265</v>
       </c>
       <c r="B285">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>44266</v>
       </c>
       <c r="B286">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>44267</v>
       </c>
       <c r="B287">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>44268</v>
       </c>
       <c r="B288">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>44269</v>
       </c>
       <c r="B289">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>44270</v>
       </c>
       <c r="B290">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>44271</v>
       </c>
       <c r="B291">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44272</v>
       </c>
       <c r="B292">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>44273</v>
       </c>
       <c r="B293">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>44274</v>
       </c>
       <c r="B294">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44275</v>
       </c>
       <c r="B295">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44276</v>
       </c>
       <c r="B296">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>44277</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44278</v>
       </c>
       <c r="B298">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>44279</v>
       </c>
       <c r="B299">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>44280</v>
       </c>
       <c r="B300">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44281</v>
       </c>
       <c r="B301">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44282</v>
       </c>
       <c r="B302">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44283</v>
       </c>
       <c r="B303">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44284</v>
       </c>
       <c r="B304">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44285</v>
       </c>
       <c r="B305">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>44286</v>
       </c>
       <c r="B306">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>44287</v>
       </c>
       <c r="B307">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>44288</v>
       </c>
       <c r="B308">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44289</v>
       </c>
       <c r="B309">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>44290</v>
       </c>
       <c r="B310">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44291</v>
       </c>
       <c r="B311">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44292</v>
       </c>
       <c r="B312">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44293</v>
       </c>
       <c r="B313">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44294</v>
       </c>
       <c r="B314">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44295</v>
       </c>
       <c r="B315">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44296</v>
       </c>
       <c r="B316">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44297</v>
       </c>
       <c r="B317">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44298</v>
       </c>
       <c r="B318">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44299</v>
       </c>
       <c r="B319">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44300</v>
       </c>
       <c r="B320">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44301</v>
       </c>
       <c r="B321">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44302</v>
       </c>
       <c r="B322">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>44303</v>
       </c>
       <c r="B323">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>44304</v>
       </c>
       <c r="B324">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>44305</v>
       </c>
       <c r="B325">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>44306</v>
       </c>
       <c r="B326">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>44307</v>
       </c>
       <c r="B327">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44308</v>
       </c>
       <c r="B328">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>44309</v>
       </c>
       <c r="B329">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>44310</v>
       </c>
       <c r="B330">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>44311</v>
       </c>
       <c r="B331">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>44312</v>
       </c>
       <c r="B332">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44313</v>
       </c>
       <c r="B333">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>44314</v>
       </c>
       <c r="B334">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44315</v>
       </c>
       <c r="B335">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>44316</v>
       </c>
       <c r="B336">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44317</v>
       </c>
       <c r="B337">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>44318</v>
       </c>
       <c r="B338">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>44319</v>
       </c>
       <c r="B339">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>44320</v>
       </c>
       <c r="B340">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44321</v>
       </c>
       <c r="B341">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44322</v>
       </c>
       <c r="B342">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44323</v>
       </c>
       <c r="B343">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>44324</v>
       </c>
       <c r="B344">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44325</v>
       </c>
       <c r="B345">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44326</v>
       </c>
       <c r="B346">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>44327</v>
       </c>
       <c r="B347">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44328</v>
       </c>
       <c r="B348">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>44329</v>
       </c>
       <c r="B349">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>44330</v>
       </c>
       <c r="B350">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44331</v>
       </c>
       <c r="B351">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44332</v>
       </c>
       <c r="B352">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44333</v>
       </c>
       <c r="B353">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>44334</v>
       </c>
       <c r="B354">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44335</v>
       </c>
       <c r="B355">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44336</v>
       </c>
       <c r="B356">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44337</v>
       </c>
       <c r="B357">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44338</v>
       </c>
       <c r="B358">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44339</v>
       </c>
       <c r="B359">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>44340</v>
       </c>
       <c r="B360">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>44341</v>
       </c>
       <c r="B361">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>44342</v>
       </c>
       <c r="B362">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>44343</v>
       </c>
       <c r="B363">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>44344</v>
       </c>
       <c r="B364">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>44345</v>
       </c>
       <c r="B365">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44346</v>
       </c>
       <c r="B366">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>44347</v>
       </c>
       <c r="B367">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>44348</v>
       </c>
       <c r="B368">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44349</v>
       </c>
       <c r="B369">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44350</v>
       </c>
       <c r="B370">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>44351</v>
       </c>
       <c r="B371">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>44352</v>
       </c>
       <c r="B372">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>44353</v>
       </c>
       <c r="B373">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44354</v>
       </c>
       <c r="B374">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44355</v>
       </c>
       <c r="B375">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>44356</v>
       </c>
       <c r="B376">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>44357</v>
       </c>
       <c r="B377">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>44358</v>
       </c>
       <c r="B378">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44359</v>
       </c>
       <c r="B379">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44360</v>
       </c>
       <c r="B380">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>44361</v>
       </c>
       <c r="B381">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>44362</v>
       </c>
       <c r="B382">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>44363</v>
       </c>
       <c r="B383">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>44364</v>
       </c>
       <c r="B384">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44365</v>
       </c>
       <c r="B385">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>44366</v>
       </c>
       <c r="B386">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44367</v>
       </c>
       <c r="B387">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44368</v>
       </c>
       <c r="B388">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44369</v>
       </c>
       <c r="B389">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>44370</v>
       </c>
       <c r="B390">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44371</v>
       </c>
       <c r="B391">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>44372</v>
       </c>
       <c r="B392">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>44373</v>
       </c>
       <c r="B393">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>44374</v>
       </c>
       <c r="B394">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>44375</v>
       </c>
       <c r="B395">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>44376</v>
       </c>
       <c r="B396">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44377</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>44378</v>
       </c>
       <c r="B398">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44379</v>
       </c>
       <c r="B399">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44380</v>
       </c>
       <c r="B400">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44381</v>
       </c>
       <c r="B401">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44382</v>
       </c>
       <c r="B402">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44383</v>
       </c>
       <c r="B403">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44384</v>
       </c>
       <c r="B404">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44385</v>
       </c>
       <c r="B405">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44386</v>
       </c>
       <c r="B406">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44387</v>
       </c>
       <c r="B407">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44388</v>
       </c>
       <c r="B408">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44389</v>
       </c>
       <c r="B409">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44390</v>
       </c>
       <c r="B410">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44391</v>
       </c>
       <c r="B411">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44392</v>
       </c>
       <c r="B412">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44393</v>
       </c>
       <c r="B413">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44394</v>
       </c>
       <c r="B414">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44395</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44396</v>
       </c>
       <c r="B416">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44397</v>
       </c>
       <c r="B417">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44398</v>
       </c>
       <c r="B418">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>44399</v>
       </c>
       <c r="B419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44400</v>
       </c>
       <c r="B420">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>44401</v>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>44402</v>
       </c>
       <c r="B422">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>44403</v>
       </c>
       <c r="B423">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>44404</v>
       </c>
       <c r="B424">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>44405</v>
       </c>
       <c r="B425">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44406</v>
       </c>
       <c r="B426">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>44407</v>
       </c>
       <c r="B427">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44408</v>
       </c>
       <c r="B428">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>44409</v>
       </c>
       <c r="B429">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44410</v>
       </c>
       <c r="B430">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44411</v>
       </c>
       <c r="B431">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44412</v>
       </c>
       <c r="B432">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44413</v>
       </c>
       <c r="B433">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44414</v>
       </c>
       <c r="B434">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44415</v>
       </c>
       <c r="B435">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44416</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44417</v>
       </c>
       <c r="B437">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44418</v>
       </c>
       <c r="B438">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44419</v>
       </c>
       <c r="B439">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44420</v>
       </c>
       <c r="B440">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44421</v>
       </c>
       <c r="B441">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44422</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44423</v>
       </c>
       <c r="B443">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44424</v>
       </c>
       <c r="B444">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44425</v>
       </c>
       <c r="B445">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44426</v>
       </c>
       <c r="B446">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44427</v>
       </c>
       <c r="B447">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44428</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44429</v>
       </c>
       <c r="B449">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44430</v>
       </c>
       <c r="B450">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44431</v>
       </c>
       <c r="B451">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44432</v>
       </c>
       <c r="B452">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44434</v>
       </c>
       <c r="B453">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44435</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44436</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44437</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>44438</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44440</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>44441</v>
       </c>
       <c r="B459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>44442</v>
       </c>
       <c r="B460">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>44443</v>
       </c>
       <c r="B461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>44444</v>
       </c>
       <c r="B462">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>44445</v>
       </c>
       <c r="B463">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>44446</v>
       </c>
       <c r="B464">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>44447</v>
       </c>
       <c r="B465">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>44448</v>
       </c>
       <c r="B466">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>44449</v>
       </c>
       <c r="B467">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44450</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>44451</v>
       </c>
       <c r="B469">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>44452</v>
       </c>
       <c r="B470">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>44453</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>44454</v>
       </c>
       <c r="B472">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>44456</v>
       </c>
       <c r="B473">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>44457</v>
       </c>
       <c r="B474">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>44458</v>
       </c>
       <c r="B475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>44459</v>
       </c>
       <c r="B476">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>44461</v>
       </c>
       <c r="B477">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>44462</v>
       </c>
       <c r="B478">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>44464</v>
       </c>
       <c r="B479">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>44466</v>
       </c>
       <c r="B480">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>44467</v>
       </c>
       <c r="B481">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>44468</v>
       </c>
       <c r="B482">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>44470</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>44471</v>
       </c>
       <c r="B484">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>44472</v>
       </c>
       <c r="B485">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>44473</v>
       </c>
       <c r="B486">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>44475</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>44476</v>
       </c>
       <c r="B488">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>44477</v>
       </c>
       <c r="B489">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>44478</v>
       </c>
       <c r="B490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>44480</v>
       </c>
       <c r="B491">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>44481</v>
       </c>
       <c r="B492">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>44484</v>
       </c>
       <c r="B493">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>44485</v>
       </c>
       <c r="B494">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>44486</v>
       </c>
       <c r="B495">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>44487</v>
       </c>
       <c r="B496">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>44488</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>44491</v>
       </c>
       <c r="B498">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>44493</v>
       </c>
       <c r="B499">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>44494</v>
       </c>
       <c r="B500">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>44495</v>
       </c>
       <c r="B501">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>44499</v>
       </c>
       <c r="B502">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>44501</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>44504</v>
       </c>
       <c r="B504">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>44505</v>
       </c>
       <c r="B505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>44506</v>
       </c>
       <c r="B506">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>44507</v>
       </c>
       <c r="B507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>44508</v>
       </c>
       <c r="B508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>44511</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>44512</v>
       </c>
       <c r="B510">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>44514</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>44515</v>
       </c>
       <c r="B512">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>44517</v>
       </c>
       <c r="B513">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>44524</v>
       </c>
       <c r="B514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>44525</v>
       </c>
       <c r="B515">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>44527</v>
       </c>
       <c r="B516">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>44528</v>
       </c>
       <c r="B517">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>44529</v>
       </c>
       <c r="B518">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>44530</v>
       </c>
       <c r="B519">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>44531</v>
       </c>
       <c r="B520">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>44536</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>44537</v>
       </c>
       <c r="B522">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>44538</v>
       </c>
       <c r="B523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>44539</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>44543</v>
       </c>
       <c r="B525">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>44544</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>44547</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>44550</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>44551</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>44552</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>44553</v>
       </c>
       <c r="B531">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>44556</v>
       </c>
       <c r="B532">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>44562</v>
       </c>
       <c r="B533">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>44563</v>
       </c>
       <c r="B534">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>44567</v>
       </c>
       <c r="B535">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>44570</v>
       </c>
       <c r="B536">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>44571</v>
       </c>
       <c r="B537">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>44572</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>44573</v>
       </c>
       <c r="B539">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>44574</v>
       </c>
       <c r="B540">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>44575</v>
       </c>
       <c r="B541">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>44576</v>
       </c>
       <c r="B542">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>44577</v>
       </c>
       <c r="B543">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>44578</v>
       </c>
       <c r="B544">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>44579</v>
       </c>
       <c r="B545">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>44580</v>
       </c>
       <c r="B546">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>44581</v>
       </c>
       <c r="B547">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>44582</v>
       </c>
       <c r="B548">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44583</v>
       </c>
       <c r="B549">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>44584</v>
       </c>
       <c r="B550">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>44585</v>
       </c>
       <c r="B551">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>44586</v>
       </c>
       <c r="B552">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>44587</v>
       </c>
       <c r="B553">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>44588</v>
       </c>
       <c r="B554">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>44589</v>
       </c>
       <c r="B555">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>44590</v>
       </c>
       <c r="B556">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>44591</v>
       </c>
       <c r="B557">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>44592</v>
       </c>
       <c r="B558">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>44593</v>
       </c>
       <c r="B559">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>44594</v>
       </c>
       <c r="B560">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>44595</v>
       </c>
       <c r="B561">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44596</v>
       </c>
       <c r="B562">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>44597</v>
       </c>
       <c r="B563">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>44598</v>
       </c>
       <c r="B564">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>44599</v>
       </c>
       <c r="B565">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>44600</v>
       </c>
       <c r="B566">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>44601</v>
       </c>
       <c r="B567">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>44602</v>
       </c>
       <c r="B568">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>44603</v>
       </c>
       <c r="B569">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>44604</v>
       </c>
       <c r="B570">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>44605</v>
       </c>
       <c r="B571">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>44606</v>
       </c>
       <c r="B572">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>44607</v>
       </c>
       <c r="B573">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>44608</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>44609</v>
       </c>
       <c r="B575">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>44610</v>
       </c>
       <c r="B576">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>44611</v>
       </c>
       <c r="B577">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>44612</v>
       </c>
       <c r="B578">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>44613</v>
       </c>
       <c r="B579">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>44614</v>
       </c>
       <c r="B580">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44615</v>
       </c>
       <c r="B581">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>44616</v>
       </c>
       <c r="B582">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>44618</v>
       </c>
       <c r="B583">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>44619</v>
       </c>
       <c r="B584">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>44621</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>44622</v>
       </c>
       <c r="B586">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>44623</v>
       </c>
       <c r="B587">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44624</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>44625</v>
       </c>
       <c r="B589">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>44626</v>
       </c>
       <c r="B590">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>44627</v>
       </c>
       <c r="B591">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>44628</v>
       </c>
       <c r="B592">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>44629</v>
       </c>
       <c r="B593">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>44630</v>
       </c>
       <c r="B594">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>44631</v>
       </c>
       <c r="B595">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44632</v>
       </c>
       <c r="B596">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>44633</v>
       </c>
       <c r="B597">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>44634</v>
       </c>
       <c r="B598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>44635</v>
       </c>
       <c r="B599">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>44636</v>
       </c>
       <c r="B600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>44637</v>
       </c>
       <c r="B601">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>44638</v>
       </c>
       <c r="B602">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>44639</v>
       </c>
       <c r="B603">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>44640</v>
       </c>
       <c r="B604">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>44641</v>
       </c>
       <c r="B605">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>44643</v>
       </c>
       <c r="B606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>44644</v>
       </c>
       <c r="B607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>44645</v>
       </c>
       <c r="B608">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5258,7 +5258,7 @@
         <v>44647</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5266,7 +5266,7 @@
         <v>44648</v>
       </c>
       <c r="B610">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>44649</v>
       </c>
       <c r="B611">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>44650</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>44651</v>
       </c>
       <c r="B613">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>44655</v>
       </c>
       <c r="B614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>44657</v>
       </c>
       <c r="B615">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5314,7 +5314,7 @@
         <v>44662</v>
       </c>
       <c r="B616">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>44663</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5330,7 +5330,7 @@
         <v>44666</v>
       </c>
       <c r="B618">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>44667</v>
       </c>
       <c r="B619">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>44669</v>
       </c>
       <c r="B620">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>44671</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>44674</v>
       </c>
       <c r="B622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5370,7 +5370,7 @@
         <v>44677</v>
       </c>
       <c r="B623">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>44679</v>
       </c>
       <c r="B624">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>44681</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>44682</v>
       </c>
       <c r="B626">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>44683</v>
       </c>
       <c r="B627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>44686</v>
       </c>
       <c r="B628">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5418,7 +5418,7 @@
         <v>44698</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>44701</v>
       </c>
       <c r="B630">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>44708</v>
       </c>
       <c r="B631">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>44709</v>
       </c>
       <c r="B632">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>44710</v>
       </c>
       <c r="B633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>44712</v>
       </c>
       <c r="B634">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>44714</v>
       </c>
       <c r="B635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>44726</v>
       </c>
       <c r="B636">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>44734</v>
       </c>
       <c r="B637">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>44735</v>
       </c>
       <c r="B638">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>44736</v>
       </c>
       <c r="B639">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>44738</v>
       </c>
       <c r="B640">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>44739</v>
       </c>
       <c r="B641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5522,7 +5522,7 @@
         <v>44742</v>
       </c>
       <c r="B642">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>44745</v>
       </c>
       <c r="B643">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>44746</v>
       </c>
       <c r="B644">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>44749</v>
       </c>
       <c r="B645">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5554,7 +5554,7 @@
         <v>44750</v>
       </c>
       <c r="B646">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44751</v>
       </c>
       <c r="B647">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>44753</v>
       </c>
       <c r="B648">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5578,7 +5578,7 @@
         <v>44754</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44755</v>
       </c>
       <c r="B650">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44757</v>
       </c>
       <c r="B651">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>44758</v>
       </c>
       <c r="B652">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44759</v>
       </c>
       <c r="B653">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>44761</v>
       </c>
       <c r="B654">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44762</v>
       </c>
       <c r="B655">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44763</v>
       </c>
       <c r="B656">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44764</v>
       </c>
       <c r="B657">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>44766</v>
       </c>
       <c r="B658">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44767</v>
       </c>
       <c r="B659">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>44769</v>
       </c>
       <c r="B660">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44771</v>
       </c>
       <c r="B661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>44773</v>
       </c>
       <c r="B662">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>44774</v>
       </c>
       <c r="B663">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44775</v>
       </c>
       <c r="B664">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>44777</v>
       </c>
       <c r="B665">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>44778</v>
       </c>
       <c r="B666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5722,7 +5722,7 @@
         <v>44779</v>
       </c>
       <c r="B667">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5730,7 +5730,7 @@
         <v>44780</v>
       </c>
       <c r="B668">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>44781</v>
       </c>
       <c r="B669">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5746,7 +5746,7 @@
         <v>44782</v>
       </c>
       <c r="B670">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>44783</v>
       </c>
       <c r="B671">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>44785</v>
       </c>
       <c r="B672">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>44786</v>
       </c>
       <c r="B673">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>44787</v>
       </c>
       <c r="B674">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>44788</v>
       </c>
       <c r="B675">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>44789</v>
       </c>
       <c r="B676">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5802,7 +5802,7 @@
         <v>44791</v>
       </c>
       <c r="B677">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>44792</v>
       </c>
       <c r="B678">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>44793</v>
       </c>
       <c r="B679">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>44794</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>44795</v>
       </c>
       <c r="B681">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5842,7 +5842,7 @@
         <v>44796</v>
       </c>
       <c r="B682">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5850,7 +5850,7 @@
         <v>44797</v>
       </c>
       <c r="B683">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5858,7 +5858,7 @@
         <v>44800</v>
       </c>
       <c r="B684">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5866,7 +5866,7 @@
         <v>44801</v>
       </c>
       <c r="B685">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>44802</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>44803</v>
       </c>
       <c r="B687">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>44804</v>
       </c>
       <c r="B688">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5898,7 +5898,7 @@
         <v>44805</v>
       </c>
       <c r="B689">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5906,7 +5906,7 @@
         <v>44806</v>
       </c>
       <c r="B690">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>44809</v>
       </c>
       <c r="B691">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>44810</v>
       </c>
       <c r="B692">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5930,7 +5930,7 @@
         <v>44812</v>
       </c>
       <c r="B693">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5938,7 +5938,7 @@
         <v>44813</v>
       </c>
       <c r="B694">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5946,7 +5946,7 @@
         <v>44815</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5954,7 +5954,7 @@
         <v>44816</v>
       </c>
       <c r="B696">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5962,7 +5962,7 @@
         <v>44818</v>
       </c>
       <c r="B697">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5970,7 +5970,7 @@
         <v>44819</v>
       </c>
       <c r="B698">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5978,7 +5978,7 @@
         <v>44822</v>
       </c>
       <c r="B699">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5986,7 +5986,7 @@
         <v>44825</v>
       </c>
       <c r="B700">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5994,7 +5994,7 @@
         <v>44827</v>
       </c>
       <c r="B701">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -6002,7 +6002,7 @@
         <v>44828</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6010,7 +6010,7 @@
         <v>44829</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>44835</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6026,7 +6026,7 @@
         <v>44836</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>44838</v>
       </c>
       <c r="B706">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6042,7 +6042,7 @@
         <v>44840</v>
       </c>
       <c r="B707">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6050,7 +6050,7 @@
         <v>44841</v>
       </c>
       <c r="B708">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6058,7 +6058,7 @@
         <v>44847</v>
       </c>
       <c r="B709">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6066,7 +6066,7 @@
         <v>44878</v>
       </c>
       <c r="B710">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6074,7 +6074,7 @@
         <v>44884</v>
       </c>
       <c r="B711">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B711"/>
+  <dimension ref="A1:B712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6077,6 +6077,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44893</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B712"/>
+  <dimension ref="A1:B731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -890,7 +890,7 @@
         <v>44036</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44039</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44040</v>
       </c>
       <c r="B67">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44041</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44043</v>
       </c>
       <c r="B70">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44045</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44046</v>
       </c>
       <c r="B73">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44054</v>
       </c>
       <c r="B81">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44057</v>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44058</v>
       </c>
       <c r="B85">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44074</v>
       </c>
       <c r="B101">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44107</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44145</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44186</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2087,31 +2087,31 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -2119,15 +2119,15 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -2135,71 +2135,71 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B219">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B223">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B226">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B227">
         <v>5</v>
@@ -2207,135 +2207,135 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B229">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B230">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B231">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B232">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B234">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B236">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B237">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B238">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B243">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B244">
         <v>12</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B245">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B248">
         <v>13</v>
@@ -2375,31 +2375,31 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B249">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B250">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B251">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B252">
         <v>14</v>
@@ -2407,79 +2407,79 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B253">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B254">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B256">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B257">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B258">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B259">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B260">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B261">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B262">
         <v>15</v>
@@ -2487,15 +2487,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B263">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B264">
         <v>17</v>
@@ -2503,47 +2503,47 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B266">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B268">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B269">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B270">
         <v>25</v>
@@ -2551,167 +2551,167 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B271">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B272">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B273">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B274">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B275">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B276">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B277">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B278">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B279">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B280">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B281">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B282">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B283">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B284">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B285">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B286">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B287">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B288">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B289">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B290">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B291">
         <v>16</v>
@@ -2719,103 +2719,103 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B293">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B294">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B295">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B296">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B297">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B298">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B299">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B300">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B301">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B302">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B303">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B304">
         <v>20</v>
@@ -2823,127 +2823,127 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B305">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B306">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B307">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B308">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B309">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B310">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B311">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B312">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B313">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B314">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B315">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B316">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B317">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B318">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B319">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B320">
         <v>22</v>
@@ -2951,87 +2951,87 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B321">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B322">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B323">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B324">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B325">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B326">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B327">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B328">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B329">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B330">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B331">
         <v>22</v>
@@ -3039,127 +3039,127 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B332">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B333">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B334">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B335">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B336">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B337">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B338">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B339">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B340">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B341">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B342">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B343">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B344">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B345">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B346">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B347">
         <v>20</v>
@@ -3167,151 +3167,151 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B348">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B349">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B350">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B351">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B352">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B353">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B354">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B355">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B356">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B357">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B358">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B359">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44340</v>
+        <v>44339</v>
       </c>
       <c r="B360">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44341</v>
+        <v>44340</v>
       </c>
       <c r="B361">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B362">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B363">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B364">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B365">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B366">
         <v>20</v>
@@ -3319,167 +3319,167 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B367">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B368">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B369">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B370">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B371">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B372">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B373">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B374">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B375">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B376">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B377">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B378">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B379">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44360</v>
+        <v>44359</v>
       </c>
       <c r="B380">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44361</v>
+        <v>44360</v>
       </c>
       <c r="B381">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44362</v>
+        <v>44361</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B384">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B385">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B386">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B387">
         <v>8</v>
@@ -3487,31 +3487,31 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B388">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B389">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="B390">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44371</v>
+        <v>44370</v>
       </c>
       <c r="B391">
         <v>8</v>
@@ -3519,71 +3519,71 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B392">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B393">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B394">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B395">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B396">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B398">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44379</v>
+        <v>44378</v>
       </c>
       <c r="B399">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44380</v>
+        <v>44379</v>
       </c>
       <c r="B400">
         <v>6</v>
@@ -3591,55 +3591,55 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="B401">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44382</v>
+        <v>44381</v>
       </c>
       <c r="B402">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B403">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="B405">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44386</v>
+        <v>44385</v>
       </c>
       <c r="B406">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44387</v>
+        <v>44386</v>
       </c>
       <c r="B407">
         <v>5</v>
@@ -3647,79 +3647,79 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B408">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B409">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B411">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44392</v>
+        <v>44391</v>
       </c>
       <c r="B412">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44393</v>
+        <v>44392</v>
       </c>
       <c r="B413">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44396</v>
+        <v>44395</v>
       </c>
       <c r="B416">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="B417">
         <v>3</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B418">
         <v>3</v>
@@ -3735,47 +3735,47 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B420">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44401</v>
+        <v>44400</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44402</v>
+        <v>44401</v>
       </c>
       <c r="B422">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B423">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B424">
         <v>3</v>
@@ -3783,47 +3783,47 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B425">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B427">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B429">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B430">
         <v>3</v>
@@ -3831,39 +3831,39 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B431">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B432">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B433">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -3871,95 +3871,95 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B437">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B439">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B440">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44423</v>
+        <v>44422</v>
       </c>
       <c r="B443">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B444">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B445">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B446">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -3975,23 +3975,23 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B449">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B450">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B451">
         <v>3</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B452">
         <v>3</v>
@@ -4007,23 +4007,23 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44434</v>
+        <v>44432</v>
       </c>
       <c r="B453">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44440</v>
+        <v>44438</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,55 +4063,55 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B460">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B462">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B463">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B464">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B465">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B466">
         <v>2</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B467">
         <v>2</v>
@@ -4127,23 +4127,23 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B470">
         <v>2</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -4167,23 +4167,23 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>44456</v>
+        <v>44454</v>
       </c>
       <c r="B473">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B474">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -4191,39 +4191,39 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44461</v>
+        <v>44459</v>
       </c>
       <c r="B477">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B478">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44464</v>
+        <v>44462</v>
       </c>
       <c r="B479">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -4231,23 +4231,23 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44467</v>
+        <v>44464</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44468</v>
+        <v>44465</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44470</v>
+        <v>44466</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -4255,47 +4255,47 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44471</v>
+        <v>44467</v>
       </c>
       <c r="B484">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44472</v>
+        <v>44468</v>
       </c>
       <c r="B485">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="B486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44475</v>
+        <v>44471</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44476</v>
+        <v>44472</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44477</v>
+        <v>44473</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44478</v>
+        <v>44475</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44480</v>
+        <v>44476</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -4319,31 +4319,31 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44481</v>
+        <v>44477</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44484</v>
+        <v>44478</v>
       </c>
       <c r="B493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44485</v>
+        <v>44480</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -4351,23 +4351,23 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="B496">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44488</v>
+        <v>44485</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44491</v>
+        <v>44486</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -4375,23 +4375,23 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44493</v>
+        <v>44487</v>
       </c>
       <c r="B499">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44494</v>
+        <v>44488</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44495</v>
+        <v>44491</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -4399,31 +4399,31 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44499</v>
+        <v>44493</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44501</v>
+        <v>44494</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44504</v>
+        <v>44495</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44505</v>
+        <v>44497</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -4431,31 +4431,31 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44506</v>
+        <v>44498</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44507</v>
+        <v>44499</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44508</v>
+        <v>44501</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44511</v>
+        <v>44502</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -4463,15 +4463,15 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44512</v>
+        <v>44504</v>
       </c>
       <c r="B510">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44514</v>
+        <v>44505</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44515</v>
+        <v>44506</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44517</v>
+        <v>44507</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44524</v>
+        <v>44508</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44525</v>
+        <v>44511</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -4511,47 +4511,47 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44527</v>
+        <v>44512</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44528</v>
+        <v>44514</v>
       </c>
       <c r="B517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44529</v>
+        <v>44515</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44530</v>
+        <v>44517</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44531</v>
+        <v>44521</v>
       </c>
       <c r="B520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44536</v>
+        <v>44523</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,15 +4559,15 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44537</v>
+        <v>44524</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44538</v>
+        <v>44525</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44539</v>
+        <v>44527</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44543</v>
+        <v>44528</v>
       </c>
       <c r="B525">
         <v>2</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44544</v>
+        <v>44529</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -4599,15 +4599,15 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44547</v>
+        <v>44531</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44550</v>
+        <v>44536</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -4615,15 +4615,15 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44551</v>
+        <v>44537</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44552</v>
+        <v>44538</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44553</v>
+        <v>44539</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,15 +4639,15 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44556</v>
+        <v>44542</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44562</v>
+        <v>44543</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -4655,39 +4655,39 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44563</v>
+        <v>44544</v>
       </c>
       <c r="B534">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44567</v>
+        <v>44546</v>
       </c>
       <c r="B535">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44570</v>
+        <v>44547</v>
       </c>
       <c r="B536">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44571</v>
+        <v>44550</v>
       </c>
       <c r="B537">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44572</v>
+        <v>44551</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,135 +4695,135 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44573</v>
+        <v>44552</v>
       </c>
       <c r="B539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44574</v>
+        <v>44553</v>
       </c>
       <c r="B540">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44575</v>
+        <v>44556</v>
       </c>
       <c r="B541">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="B542">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B543">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44578</v>
+        <v>44564</v>
       </c>
       <c r="B544">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44579</v>
+        <v>44566</v>
       </c>
       <c r="B545">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44580</v>
+        <v>44567</v>
       </c>
       <c r="B546">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B547">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44582</v>
+        <v>44571</v>
       </c>
       <c r="B548">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44583</v>
+        <v>44572</v>
       </c>
       <c r="B549">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44584</v>
+        <v>44573</v>
       </c>
       <c r="B550">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44585</v>
+        <v>44574</v>
       </c>
       <c r="B551">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B552">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44587</v>
+        <v>44576</v>
       </c>
       <c r="B553">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44588</v>
+        <v>44577</v>
       </c>
       <c r="B554">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44589</v>
+        <v>44578</v>
       </c>
       <c r="B555">
         <v>4</v>
@@ -4831,55 +4831,55 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44590</v>
+        <v>44579</v>
       </c>
       <c r="B556">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44591</v>
+        <v>44580</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="B558">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44593</v>
+        <v>44582</v>
       </c>
       <c r="B559">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44594</v>
+        <v>44583</v>
       </c>
       <c r="B560">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44595</v>
+        <v>44584</v>
       </c>
       <c r="B561">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44596</v>
+        <v>44585</v>
       </c>
       <c r="B562">
         <v>5</v>
@@ -4887,15 +4887,15 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44597</v>
+        <v>44586</v>
       </c>
       <c r="B563">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44598</v>
+        <v>44587</v>
       </c>
       <c r="B564">
         <v>7</v>
@@ -4903,87 +4903,87 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44599</v>
+        <v>44588</v>
       </c>
       <c r="B565">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44600</v>
+        <v>44589</v>
       </c>
       <c r="B566">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44601</v>
+        <v>44590</v>
       </c>
       <c r="B567">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44602</v>
+        <v>44591</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44603</v>
+        <v>44592</v>
       </c>
       <c r="B569">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44604</v>
+        <v>44593</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44605</v>
+        <v>44594</v>
       </c>
       <c r="B571">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44606</v>
+        <v>44595</v>
       </c>
       <c r="B572">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44607</v>
+        <v>44596</v>
       </c>
       <c r="B573">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44608</v>
+        <v>44597</v>
       </c>
       <c r="B574">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44609</v>
+        <v>44598</v>
       </c>
       <c r="B575">
         <v>6</v>
@@ -4991,167 +4991,167 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44610</v>
+        <v>44599</v>
       </c>
       <c r="B576">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44611</v>
+        <v>44600</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44612</v>
+        <v>44601</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44613</v>
+        <v>44602</v>
       </c>
       <c r="B579">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44614</v>
+        <v>44603</v>
       </c>
       <c r="B580">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44615</v>
+        <v>44604</v>
       </c>
       <c r="B581">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44616</v>
+        <v>44605</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44618</v>
+        <v>44606</v>
       </c>
       <c r="B583">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44619</v>
+        <v>44607</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44621</v>
+        <v>44608</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44622</v>
+        <v>44609</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44623</v>
+        <v>44610</v>
       </c>
       <c r="B587">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44624</v>
+        <v>44611</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44625</v>
+        <v>44612</v>
       </c>
       <c r="B589">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44626</v>
+        <v>44613</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44627</v>
+        <v>44614</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44628</v>
+        <v>44615</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44629</v>
+        <v>44616</v>
       </c>
       <c r="B593">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44630</v>
+        <v>44618</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44631</v>
+        <v>44619</v>
       </c>
       <c r="B595">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44632</v>
+        <v>44620</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,79 +5159,79 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44633</v>
+        <v>44623</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44634</v>
+        <v>44624</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44635</v>
+        <v>44625</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44636</v>
+        <v>44626</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44637</v>
+        <v>44627</v>
       </c>
       <c r="B601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44638</v>
+        <v>44629</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44639</v>
+        <v>44630</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44640</v>
+        <v>44631</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44641</v>
+        <v>44632</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44643</v>
+        <v>44634</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44644</v>
+        <v>44635</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44645</v>
+        <v>44636</v>
       </c>
       <c r="B608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44647</v>
+        <v>44637</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44648</v>
+        <v>44638</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44649</v>
+        <v>44639</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44650</v>
+        <v>44640</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,39 +5287,39 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44651</v>
+        <v>44641</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44655</v>
+        <v>44644</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44657</v>
+        <v>44645</v>
       </c>
       <c r="B615">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44662</v>
+        <v>44648</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44663</v>
+        <v>44649</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44666</v>
+        <v>44650</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44667</v>
+        <v>44655</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -5343,15 +5343,15 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44669</v>
+        <v>44657</v>
       </c>
       <c r="B620">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44671</v>
+        <v>44659</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -5359,15 +5359,15 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44674</v>
+        <v>44662</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44677</v>
+        <v>44663</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44679</v>
+        <v>44666</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44681</v>
+        <v>44667</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44682</v>
+        <v>44669</v>
       </c>
       <c r="B626">
         <v>2</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44683</v>
+        <v>44671</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44686</v>
+        <v>44674</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44698</v>
+        <v>44676</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44701</v>
+        <v>44677</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44708</v>
+        <v>44679</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,39 +5439,39 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44709</v>
+        <v>44681</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44710</v>
+        <v>44682</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44712</v>
+        <v>44683</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44714</v>
+        <v>44686</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44726</v>
+        <v>44690</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44734</v>
+        <v>44691</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44735</v>
+        <v>44698</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -5495,23 +5495,23 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44736</v>
+        <v>44701</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44738</v>
+        <v>44702</v>
       </c>
       <c r="B640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44739</v>
+        <v>44708</v>
       </c>
       <c r="B641">
         <v>1</v>
@@ -5519,15 +5519,15 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44742</v>
+        <v>44709</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44745</v>
+        <v>44710</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44746</v>
+        <v>44712</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44749</v>
+        <v>44714</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44750</v>
+        <v>44717</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,31 +5559,31 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44751</v>
+        <v>44719</v>
       </c>
       <c r="B647">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44753</v>
+        <v>44723</v>
       </c>
       <c r="B648">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44754</v>
+        <v>44726</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44755</v>
+        <v>44729</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,15 +5591,15 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44757</v>
+        <v>44731</v>
       </c>
       <c r="B651">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44758</v>
+        <v>44732</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44759</v>
+        <v>44733</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,63 +5615,63 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44761</v>
+        <v>44734</v>
       </c>
       <c r="B654">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44762</v>
+        <v>44736</v>
       </c>
       <c r="B655">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44763</v>
+        <v>44738</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44764</v>
+        <v>44739</v>
       </c>
       <c r="B657">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44766</v>
+        <v>44742</v>
       </c>
       <c r="B658">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44767</v>
+        <v>44743</v>
       </c>
       <c r="B659">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44769</v>
+        <v>44745</v>
       </c>
       <c r="B660">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44771</v>
+        <v>44746</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,31 +5679,31 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44773</v>
+        <v>44747</v>
       </c>
       <c r="B662">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44774</v>
+        <v>44749</v>
       </c>
       <c r="B663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44775</v>
+        <v>44750</v>
       </c>
       <c r="B664">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44777</v>
+        <v>44751</v>
       </c>
       <c r="B665">
         <v>2</v>
@@ -5711,39 +5711,39 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44778</v>
+        <v>44753</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44779</v>
+        <v>44754</v>
       </c>
       <c r="B667">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44780</v>
+        <v>44755</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44781</v>
+        <v>44756</v>
       </c>
       <c r="B669">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44782</v>
+        <v>44757</v>
       </c>
       <c r="B670">
         <v>2</v>
@@ -5751,15 +5751,15 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44783</v>
+        <v>44758</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44785</v>
+        <v>44759</v>
       </c>
       <c r="B672">
         <v>1</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44786</v>
+        <v>44761</v>
       </c>
       <c r="B673">
         <v>4</v>
@@ -5775,47 +5775,47 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44787</v>
+        <v>44762</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44788</v>
+        <v>44763</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44789</v>
+        <v>44764</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44791</v>
+        <v>44766</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44792</v>
+        <v>44767</v>
       </c>
       <c r="B678">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44793</v>
+        <v>44769</v>
       </c>
       <c r="B679">
         <v>3</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44794</v>
+        <v>44771</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -5831,63 +5831,63 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44795</v>
+        <v>44773</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44796</v>
+        <v>44774</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44797</v>
+        <v>44775</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44800</v>
+        <v>44777</v>
       </c>
       <c r="B684">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44801</v>
+        <v>44778</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44802</v>
+        <v>44779</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44803</v>
+        <v>44780</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44804</v>
+        <v>44781</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44805</v>
+        <v>44782</v>
       </c>
       <c r="B689">
         <v>3</v>
@@ -5903,15 +5903,15 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44806</v>
+        <v>44783</v>
       </c>
       <c r="B690">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44809</v>
+        <v>44785</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,15 +5919,15 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44810</v>
+        <v>44786</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44812</v>
+        <v>44787</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,15 +5935,15 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44813</v>
+        <v>44788</v>
       </c>
       <c r="B694">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44815</v>
+        <v>44789</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -5951,15 +5951,15 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44816</v>
+        <v>44791</v>
       </c>
       <c r="B696">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44818</v>
+        <v>44792</v>
       </c>
       <c r="B697">
         <v>2</v>
@@ -5967,39 +5967,39 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44819</v>
+        <v>44793</v>
       </c>
       <c r="B698">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44822</v>
+        <v>44794</v>
       </c>
       <c r="B699">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44825</v>
+        <v>44795</v>
       </c>
       <c r="B700">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44827</v>
+        <v>44796</v>
       </c>
       <c r="B701">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44828</v>
+        <v>44797</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -6007,23 +6007,23 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44829</v>
+        <v>44800</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44835</v>
+        <v>44801</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44836</v>
+        <v>44802</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44838</v>
+        <v>44803</v>
       </c>
       <c r="B706">
         <v>1</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44840</v>
+        <v>44804</v>
       </c>
       <c r="B707">
         <v>2</v>
@@ -6047,23 +6047,23 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44841</v>
+        <v>44805</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44847</v>
+        <v>44806</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44878</v>
+        <v>44809</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44884</v>
+        <v>44810</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,9 +6079,161 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B715">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44822</v>
+      </c>
+      <c r="B718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44847</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44878</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
         <v>44893</v>
       </c>
-      <c r="B712">
+      <c r="B731">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44322</v>
       </c>
       <c r="B343">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44327</v>
       </c>
       <c r="B348">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B551">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B556">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B558">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B560">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B566">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B567">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B568">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B569">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B570">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B572">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B573">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B574">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B580">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B582">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B583">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B586">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B589">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B594">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B595">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B602">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,15 +5271,15 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="B635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44701</v>
+        <v>44702</v>
       </c>
       <c r="B639">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44702</v>
+        <v>44708</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B642">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44714</v>
+        <v>44717</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44717</v>
+        <v>44719</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,23 +5567,23 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44723</v>
+        <v>44726</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44726</v>
+        <v>44729</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44729</v>
+        <v>44731</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44731</v>
+        <v>44732</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,23 +5623,23 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44743</v>
+        <v>44745</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44747</v>
+        <v>44749</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -5695,15 +5695,15 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="B665">
         <v>2</v>
@@ -5711,15 +5711,15 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -5735,63 +5735,63 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B670">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B671">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44759</v>
+        <v>44761</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B673">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="B678">
         <v>3</v>
@@ -5815,23 +5815,23 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44771</v>
+        <v>44773</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -5839,47 +5839,47 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B682">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B683">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B684">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B686">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -5887,23 +5887,23 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B688">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B689">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -5911,39 +5911,39 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B692">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B694">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -5951,31 +5951,31 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B697">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B698">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -5983,47 +5983,47 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B701">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44797</v>
+        <v>44800</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B703">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -6031,23 +6031,23 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B707">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B708">
         <v>3</v>
@@ -6055,15 +6055,15 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B709">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44810</v>
+        <v>44812</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,31 +6079,31 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44813</v>
+        <v>44815</v>
       </c>
       <c r="B713">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44819</v>
+        <v>44822</v>
       </c>
       <c r="B717">
         <v>2</v>
@@ -6127,31 +6127,31 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="B718">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44825</v>
+        <v>44827</v>
       </c>
       <c r="B719">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B720">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44836</v>
+        <v>44838</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -6183,23 +6183,23 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44838</v>
+        <v>44840</v>
       </c>
       <c r="B725">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B726">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44841</v>
+        <v>44847</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44847</v>
+        <v>44878</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44878</v>
+        <v>44884</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44884</v>
+        <v>44893</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -6231,10 +6231,18 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44893</v>
+        <v>44898</v>
       </c>
       <c r="B731">
         <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44899</v>
+      </c>
+      <c r="B732">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44332</v>
       </c>
       <c r="B353">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44354</v>
       </c>
       <c r="B375">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44523</v>
+        <v>44521</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B552">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B562">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B566">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B567">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B569">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B570">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B572">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B575">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B579">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B581">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B582">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B587">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B599">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44634</v>
+        <v>44632</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,15 +5271,15 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44644</v>
+        <v>44641</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44648</v>
+        <v>44645</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44655</v>
+        <v>44650</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44659</v>
+        <v>44657</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44676</v>
+        <v>44674</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44690</v>
+        <v>44686</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B638">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B641">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44717</v>
+        <v>44714</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44719</v>
+        <v>44717</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44723</v>
+        <v>44719</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,23 +5567,23 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44726</v>
+        <v>44723</v>
       </c>
       <c r="B648">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44729</v>
+        <v>44726</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44731</v>
+        <v>44729</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44732</v>
+        <v>44731</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,23 +5623,23 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B655">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44742</v>
+        <v>44739</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44745</v>
+        <v>44743</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>44782</v>
       </c>
       <c r="B688">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -6234,7 +6234,7 @@
         <v>44898</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6242,6 +6242,30 @@
         <v>44899</v>
       </c>
       <c r="B732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44902</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B735">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44354</v>
       </c>
       <c r="B375">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44394</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B551">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B556">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B558">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B560">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B566">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B567">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B568">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B569">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B570">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B572">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B573">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B574">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B580">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B582">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B583">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B586">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B589">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B594">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B595">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B602">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,15 +5271,15 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="B635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44701</v>
+        <v>44702</v>
       </c>
       <c r="B639">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44702</v>
+        <v>44708</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B642">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44714</v>
+        <v>44717</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44717</v>
+        <v>44719</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,23 +5567,23 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44723</v>
+        <v>44726</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44726</v>
+        <v>44729</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44729</v>
+        <v>44731</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44731</v>
+        <v>44732</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,23 +5623,23 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44743</v>
+        <v>44745</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="B660">
         <v>1</v>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44332</v>
       </c>
       <c r="B353">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>44782</v>
       </c>
       <c r="B688">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="689" spans="1:2">

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B735"/>
+  <dimension ref="A1:B736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44322</v>
       </c>
       <c r="B343">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44394</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44623</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44747</v>
+        <v>44749</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,15 +5687,15 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="B664">
         <v>2</v>
@@ -5703,15 +5703,15 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B666">
         <v>1</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,63 +5727,63 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B669">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44759</v>
+        <v>44761</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B672">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="B675">
         <v>3</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,23 +5807,23 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B678">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44771</v>
+        <v>44773</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B680">
         <v>2</v>
@@ -5831,47 +5831,47 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B681">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B683">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B685">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -5887,15 +5887,15 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B688">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -5903,39 +5903,39 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B691">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B693">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -5943,31 +5943,31 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B696">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B697">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -5975,47 +5975,47 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B700">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44797</v>
+        <v>44800</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B702">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B703">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B704">
         <v>1</v>
@@ -6023,23 +6023,23 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B706">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B707">
         <v>3</v>
@@ -6047,15 +6047,15 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B708">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44810</v>
+        <v>44812</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,31 +6071,31 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44813</v>
+        <v>44815</v>
       </c>
       <c r="B712">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44816</v>
+        <v>44818</v>
       </c>
       <c r="B714">
         <v>2</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44819</v>
+        <v>44822</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -6119,31 +6119,31 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="B717">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44825</v>
+        <v>44827</v>
       </c>
       <c r="B718">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B719">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B720">
         <v>1</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44836</v>
+        <v>44838</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -6175,23 +6175,23 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44838</v>
+        <v>44840</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B725">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44841</v>
+        <v>44847</v>
       </c>
       <c r="B726">
         <v>1</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44847</v>
+        <v>44878</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44878</v>
+        <v>44884</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44884</v>
+        <v>44893</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,15 +6223,15 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44893</v>
+        <v>44898</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B731">
         <v>2</v>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="B732">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -6255,18 +6255,26 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44906</v>
+        <v>44910</v>
       </c>
       <c r="B735">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44912</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44073</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44623</v>
       </c>
       <c r="B596">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>44782</v>
       </c>
       <c r="B687">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:2">

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B736"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44284</v>
       </c>
       <c r="B305">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44338</v>
       </c>
       <c r="B359">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44523</v>
+        <v>44521</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B552">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B562">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B566">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B567">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B569">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B570">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B572">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B575">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B579">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B581">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B582">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B587">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B599">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44634</v>
+        <v>44632</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,15 +5271,15 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44644</v>
+        <v>44641</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44648</v>
+        <v>44645</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44655</v>
+        <v>44650</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44659</v>
+        <v>44657</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44676</v>
+        <v>44674</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44690</v>
+        <v>44686</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B638">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B641">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44717</v>
+        <v>44714</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44719</v>
+        <v>44717</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44723</v>
+        <v>44719</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,23 +5567,23 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44726</v>
+        <v>44723</v>
       </c>
       <c r="B648">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44729</v>
+        <v>44726</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44731</v>
+        <v>44729</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44732</v>
+        <v>44731</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,23 +5623,23 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B655">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44742</v>
+        <v>44739</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44745</v>
+        <v>44743</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44747</v>
+        <v>44745</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44749</v>
+        <v>44746</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,39 +5687,39 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="B663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44754</v>
+        <v>44751</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,55 +5727,55 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44758</v>
+        <v>44756</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44759</v>
+        <v>44757</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="B671">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44762</v>
+        <v>44759</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44763</v>
+        <v>44761</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -5783,15 +5783,15 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44766</v>
+        <v>44763</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44767</v>
+        <v>44764</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44769</v>
+        <v>44766</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,39 +5807,39 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44771</v>
+        <v>44767</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44773</v>
+        <v>44769</v>
       </c>
       <c r="B679">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44774</v>
+        <v>44771</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44775</v>
+        <v>44773</v>
       </c>
       <c r="B681">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44777</v>
+        <v>44774</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -5847,71 +5847,71 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44778</v>
+        <v>44775</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44779</v>
+        <v>44777</v>
       </c>
       <c r="B684">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44780</v>
+        <v>44778</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44781</v>
+        <v>44779</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44782</v>
+        <v>44780</v>
       </c>
       <c r="B687">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44783</v>
+        <v>44781</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44785</v>
+        <v>44782</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44786</v>
+        <v>44783</v>
       </c>
       <c r="B690">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44787</v>
+        <v>44785</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,15 +5919,15 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44788</v>
+        <v>44786</v>
       </c>
       <c r="B692">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44789</v>
+        <v>44787</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,55 +5935,55 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44791</v>
+        <v>44788</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44792</v>
+        <v>44789</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44793</v>
+        <v>44791</v>
       </c>
       <c r="B696">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44794</v>
+        <v>44792</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44795</v>
+        <v>44793</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44796</v>
+        <v>44794</v>
       </c>
       <c r="B699">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44797</v>
+        <v>44795</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44800</v>
+        <v>44796</v>
       </c>
       <c r="B701">
         <v>3</v>
@@ -5999,71 +5999,71 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44801</v>
+        <v>44797</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44803</v>
+        <v>44801</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44805</v>
+        <v>44803</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44806</v>
+        <v>44804</v>
       </c>
       <c r="B707">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44809</v>
+        <v>44805</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,15 +6071,15 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="B711">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44815</v>
+        <v>44812</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44816</v>
+        <v>44813</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44818</v>
+        <v>44815</v>
       </c>
       <c r="B714">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44822</v>
+        <v>44818</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -6119,15 +6119,15 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44825</v>
+        <v>44819</v>
       </c>
       <c r="B717">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44827</v>
+        <v>44822</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -6135,23 +6135,23 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44828</v>
+        <v>44825</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44829</v>
+        <v>44827</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44835</v>
+        <v>44828</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44836</v>
+        <v>44829</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44838</v>
+        <v>44835</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -6175,15 +6175,15 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44840</v>
+        <v>44836</v>
       </c>
       <c r="B724">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -6191,15 +6191,15 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44847</v>
+        <v>44840</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44878</v>
+        <v>44841</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44884</v>
+        <v>44847</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44893</v>
+        <v>44878</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,47 +6223,47 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44898</v>
+        <v>44884</v>
       </c>
       <c r="B730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44899</v>
+        <v>44893</v>
       </c>
       <c r="B731">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44902</v>
+        <v>44899</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44906</v>
+        <v>44901</v>
       </c>
       <c r="B734">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44910</v>
+        <v>44902</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -6271,9 +6271,57 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
+        <v>44906</v>
+      </c>
+      <c r="B736">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
         <v>44912</v>
       </c>
-      <c r="B736">
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>44916</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44920</v>
+      </c>
+      <c r="B741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44922</v>
+      </c>
+      <c r="B742">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B742"/>
+  <dimension ref="A1:B745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44284</v>
       </c>
       <c r="B305">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44322</v>
       </c>
       <c r="B343">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44394</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>44623</v>
       </c>
       <c r="B597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -6322,6 +6322,30 @@
         <v>44922</v>
       </c>
       <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44926</v>
+      </c>
+      <c r="B745">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B745"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>44047</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44332</v>
       </c>
       <c r="B353">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44338</v>
       </c>
       <c r="B359">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B551">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B556">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B558">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B560">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B566">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B567">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B568">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B569">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B570">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B572">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B573">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B574">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B580">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B582">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B583">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B586">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B589">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B594">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B595">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B602">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,15 +5271,15 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="B635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44701</v>
+        <v>44702</v>
       </c>
       <c r="B639">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44702</v>
+        <v>44708</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B642">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44714</v>
+        <v>44717</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44717</v>
+        <v>44719</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,23 +5567,23 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44723</v>
+        <v>44726</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44726</v>
+        <v>44729</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44729</v>
+        <v>44731</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44731</v>
+        <v>44732</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,23 +5623,23 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44736</v>
+        <v>44738</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44738</v>
+        <v>44739</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44743</v>
+        <v>44745</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44745</v>
+        <v>44747</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44746</v>
+        <v>44749</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44747</v>
+        <v>44750</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,39 +5687,39 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44749</v>
+        <v>44751</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44751</v>
+        <v>44754</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44753</v>
+        <v>44755</v>
       </c>
       <c r="B666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,55 +5727,55 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44756</v>
+        <v>44758</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44757</v>
+        <v>44759</v>
       </c>
       <c r="B670">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44758</v>
+        <v>44761</v>
       </c>
       <c r="B671">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44759</v>
+        <v>44762</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44761</v>
+        <v>44763</v>
       </c>
       <c r="B673">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44762</v>
+        <v>44764</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -5783,15 +5783,15 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44763</v>
+        <v>44766</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44766</v>
+        <v>44769</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,39 +5807,39 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44767</v>
+        <v>44771</v>
       </c>
       <c r="B678">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44769</v>
+        <v>44773</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44771</v>
+        <v>44774</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44773</v>
+        <v>44775</v>
       </c>
       <c r="B681">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44774</v>
+        <v>44777</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -5847,39 +5847,39 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44775</v>
+        <v>44778</v>
       </c>
       <c r="B683">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44777</v>
+        <v>44779</v>
       </c>
       <c r="B684">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44778</v>
+        <v>44780</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="B686">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44780</v>
+        <v>44782</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -5887,31 +5887,31 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44781</v>
+        <v>44783</v>
       </c>
       <c r="B688">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44782</v>
+        <v>44785</v>
       </c>
       <c r="B689">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44783</v>
+        <v>44786</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44785</v>
+        <v>44787</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,15 +5919,15 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="B692">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44787</v>
+        <v>44789</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,55 +5935,55 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44788</v>
+        <v>44791</v>
       </c>
       <c r="B694">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44789</v>
+        <v>44792</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44791</v>
+        <v>44793</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44792</v>
+        <v>44794</v>
       </c>
       <c r="B697">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44793</v>
+        <v>44795</v>
       </c>
       <c r="B698">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44794</v>
+        <v>44796</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44795</v>
+        <v>44797</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44796</v>
+        <v>44800</v>
       </c>
       <c r="B701">
         <v>3</v>
@@ -5999,71 +5999,71 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44797</v>
+        <v>44801</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44800</v>
+        <v>44802</v>
       </c>
       <c r="B703">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44801</v>
+        <v>44803</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44802</v>
+        <v>44804</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44803</v>
+        <v>44805</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44804</v>
+        <v>44806</v>
       </c>
       <c r="B707">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44805</v>
+        <v>44809</v>
       </c>
       <c r="B708">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B709">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44809</v>
+        <v>44812</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,15 +6071,15 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44810</v>
+        <v>44813</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44812</v>
+        <v>44815</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44813</v>
+        <v>44816</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44815</v>
+        <v>44818</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44816</v>
+        <v>44819</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44818</v>
+        <v>44822</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -6119,15 +6119,15 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44819</v>
+        <v>44825</v>
       </c>
       <c r="B717">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44822</v>
+        <v>44827</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -6135,23 +6135,23 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44825</v>
+        <v>44828</v>
       </c>
       <c r="B719">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44827</v>
+        <v>44829</v>
       </c>
       <c r="B720">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44828</v>
+        <v>44835</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44829</v>
+        <v>44836</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44835</v>
+        <v>44838</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -6175,15 +6175,15 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44836</v>
+        <v>44840</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44838</v>
+        <v>44841</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -6191,15 +6191,15 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44840</v>
+        <v>44847</v>
       </c>
       <c r="B726">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44841</v>
+        <v>44878</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44847</v>
+        <v>44884</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44878</v>
+        <v>44893</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,47 +6223,47 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44884</v>
+        <v>44898</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44898</v>
+        <v>44901</v>
       </c>
       <c r="B732">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44899</v>
+        <v>44902</v>
       </c>
       <c r="B733">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44901</v>
+        <v>44906</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44902</v>
+        <v>44910</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -6271,15 +6271,15 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44906</v>
+        <v>44912</v>
       </c>
       <c r="B736">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44910</v>
+        <v>44916</v>
       </c>
       <c r="B737">
         <v>1</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44916</v>
+        <v>44920</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44919</v>
+        <v>44922</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -6319,33 +6319,17 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44922</v>
+        <v>44925</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44923</v>
+        <v>44926</v>
       </c>
       <c r="B743">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="2">
-        <v>44925</v>
-      </c>
-      <c r="B744">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="2">
-        <v>44926</v>
-      </c>
-      <c r="B745">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B743"/>
+  <dimension ref="A1:B754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44523</v>
+        <v>44521</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B552">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B562">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B566">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B567">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B569">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B570">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B572">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B575">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B579">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B581">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B582">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B587">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B599">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44634</v>
+        <v>44632</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,15 +5271,15 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44644</v>
+        <v>44641</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44648</v>
+        <v>44645</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44655</v>
+        <v>44650</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44659</v>
+        <v>44657</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44676</v>
+        <v>44674</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44690</v>
+        <v>44686</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B638">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B641">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44717</v>
+        <v>44714</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44719</v>
+        <v>44717</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44723</v>
+        <v>44719</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,23 +5567,23 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44726</v>
+        <v>44723</v>
       </c>
       <c r="B648">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44729</v>
+        <v>44726</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44731</v>
+        <v>44729</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44732</v>
+        <v>44731</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,23 +5623,23 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B655">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44742</v>
+        <v>44739</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44745</v>
+        <v>44743</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44747</v>
+        <v>44745</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44749</v>
+        <v>44746</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,39 +5687,39 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="B663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44754</v>
+        <v>44751</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,55 +5727,55 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44758</v>
+        <v>44756</v>
       </c>
       <c r="B669">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44759</v>
+        <v>44757</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="B671">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44762</v>
+        <v>44759</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44763</v>
+        <v>44761</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="B674">
         <v>3</v>
@@ -5783,15 +5783,15 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44766</v>
+        <v>44763</v>
       </c>
       <c r="B675">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44767</v>
+        <v>44764</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44769</v>
+        <v>44766</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,39 +5807,39 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44771</v>
+        <v>44767</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44773</v>
+        <v>44769</v>
       </c>
       <c r="B679">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44774</v>
+        <v>44771</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44775</v>
+        <v>44773</v>
       </c>
       <c r="B681">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44777</v>
+        <v>44774</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -5847,39 +5847,39 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44778</v>
+        <v>44775</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44779</v>
+        <v>44777</v>
       </c>
       <c r="B684">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44780</v>
+        <v>44778</v>
       </c>
       <c r="B685">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44781</v>
+        <v>44779</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44782</v>
+        <v>44780</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -5887,31 +5887,31 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44783</v>
+        <v>44781</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44785</v>
+        <v>44782</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44786</v>
+        <v>44783</v>
       </c>
       <c r="B690">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44787</v>
+        <v>44785</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -5919,15 +5919,15 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44788</v>
+        <v>44786</v>
       </c>
       <c r="B692">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44789</v>
+        <v>44787</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,55 +5935,55 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44791</v>
+        <v>44788</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44792</v>
+        <v>44789</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44793</v>
+        <v>44791</v>
       </c>
       <c r="B696">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44794</v>
+        <v>44792</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44795</v>
+        <v>44793</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44796</v>
+        <v>44794</v>
       </c>
       <c r="B699">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44797</v>
+        <v>44795</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44800</v>
+        <v>44796</v>
       </c>
       <c r="B701">
         <v>3</v>
@@ -5999,71 +5999,71 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44801</v>
+        <v>44797</v>
       </c>
       <c r="B702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44803</v>
+        <v>44801</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44805</v>
+        <v>44803</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44806</v>
+        <v>44804</v>
       </c>
       <c r="B707">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44809</v>
+        <v>44805</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -6071,15 +6071,15 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="B711">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44815</v>
+        <v>44812</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44816</v>
+        <v>44813</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44818</v>
+        <v>44815</v>
       </c>
       <c r="B714">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44822</v>
+        <v>44818</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -6119,15 +6119,15 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44825</v>
+        <v>44819</v>
       </c>
       <c r="B717">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44827</v>
+        <v>44822</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -6135,23 +6135,23 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44828</v>
+        <v>44825</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44829</v>
+        <v>44827</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44835</v>
+        <v>44828</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44836</v>
+        <v>44829</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44838</v>
+        <v>44835</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -6175,15 +6175,15 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44840</v>
+        <v>44836</v>
       </c>
       <c r="B724">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -6191,15 +6191,15 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44847</v>
+        <v>44840</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44878</v>
+        <v>44841</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44884</v>
+        <v>44847</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44893</v>
+        <v>44878</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,47 +6223,47 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44898</v>
+        <v>44884</v>
       </c>
       <c r="B730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44899</v>
+        <v>44893</v>
       </c>
       <c r="B731">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44902</v>
+        <v>44899</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44906</v>
+        <v>44901</v>
       </c>
       <c r="B734">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44910</v>
+        <v>44902</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -6271,15 +6271,15 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44912</v>
+        <v>44906</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44916</v>
+        <v>44910</v>
       </c>
       <c r="B737">
         <v>1</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44919</v>
+        <v>44912</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44920</v>
+        <v>44916</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44922</v>
+        <v>44919</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44923</v>
+        <v>44920</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -6319,17 +6319,105 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44925</v>
+        <v>44922</v>
       </c>
       <c r="B742">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
+        <v>44923</v>
+      </c>
+      <c r="B743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B745">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
         <v>44926</v>
       </c>
-      <c r="B743">
+      <c r="B746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44931</v>
+      </c>
+      <c r="B747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44937</v>
+      </c>
+      <c r="B749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44939</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B752">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B754">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B754"/>
+  <dimension ref="A1:B762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44332</v>
       </c>
       <c r="B353">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44338</v>
       </c>
       <c r="B359">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44521</v>
+        <v>44523</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44525</v>
+        <v>44527</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44531</v>
+        <v>44536</v>
       </c>
       <c r="B527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44556</v>
+        <v>44562</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44564</v>
+        <v>44566</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44570</v>
+        <v>44571</v>
       </c>
       <c r="B547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B550">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B551">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44575</v>
+        <v>44576</v>
       </c>
       <c r="B552">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44577</v>
+        <v>44578</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B555">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B556">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B557">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B558">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44582</v>
+        <v>44583</v>
       </c>
       <c r="B559">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44583</v>
+        <v>44584</v>
       </c>
       <c r="B560">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44584</v>
+        <v>44585</v>
       </c>
       <c r="B561">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B562">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B564">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="B566">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="B567">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B568">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B569">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B570">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B572">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44596</v>
+        <v>44597</v>
       </c>
       <c r="B573">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44597</v>
+        <v>44598</v>
       </c>
       <c r="B574">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44598</v>
+        <v>44599</v>
       </c>
       <c r="B575">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B576">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B577">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B578">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B580">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44604</v>
+        <v>44605</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="B582">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B583">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B585">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B586">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44610</v>
+        <v>44611</v>
       </c>
       <c r="B587">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B589">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B590">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B591">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B592">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44616</v>
+        <v>44618</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="B594">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="B595">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44624</v>
+        <v>44625</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,55 +5175,55 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44625</v>
+        <v>44626</v>
       </c>
       <c r="B599">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44626</v>
+        <v>44627</v>
       </c>
       <c r="B600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B602">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B603">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="B604">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44632</v>
+        <v>44634</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B609">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -5287,15 +5287,15 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44657</v>
+        <v>44659</v>
       </c>
       <c r="B620">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44666</v>
+        <v>44667</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44667</v>
+        <v>44669</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="B626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44674</v>
+        <v>44676</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44677</v>
+        <v>44679</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44679</v>
+        <v>44681</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44682</v>
+        <v>44683</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44683</v>
+        <v>44686</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="B635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44691</v>
+        <v>44698</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44698</v>
+        <v>44701</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44701</v>
+        <v>44702</v>
       </c>
       <c r="B639">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44702</v>
+        <v>44708</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44708</v>
+        <v>44709</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44709</v>
+        <v>44710</v>
       </c>
       <c r="B642">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44710</v>
+        <v>44712</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44712</v>
+        <v>44714</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44714</v>
+        <v>44717</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44717</v>
+        <v>44719</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44723</v>
+        <v>44724</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44747</v>
+        <v>44749</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -5695,15 +5695,15 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44750</v>
+        <v>44751</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44751</v>
+        <v>44753</v>
       </c>
       <c r="B665">
         <v>2</v>
@@ -5711,15 +5711,15 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -5735,63 +5735,63 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B670">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B671">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44759</v>
+        <v>44761</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B673">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B674">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="B676">
         <v>3</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44766</v>
+        <v>44767</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="B678">
         <v>3</v>
@@ -5815,23 +5815,23 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B679">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44771</v>
+        <v>44773</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -5839,47 +5839,47 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B682">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B683">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B684">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B686">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -5895,15 +5895,15 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B689">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -5911,39 +5911,39 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B692">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B694">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -5951,31 +5951,31 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B697">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B698">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -5983,23 +5983,23 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B701">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44797</v>
+        <v>44799</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44878</v>
+        <v>44864</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44884</v>
+        <v>44878</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44893</v>
+        <v>44884</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44898</v>
+        <v>44893</v>
       </c>
       <c r="B732">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44899</v>
+        <v>44898</v>
       </c>
       <c r="B733">
         <v>2</v>
@@ -6255,15 +6255,15 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44901</v>
+        <v>44899</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44902</v>
+        <v>44901</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -6271,23 +6271,23 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44906</v>
+        <v>44902</v>
       </c>
       <c r="B736">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44910</v>
+        <v>44906</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44912</v>
+        <v>44910</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44916</v>
+        <v>44912</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44919</v>
+        <v>44916</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44920</v>
+        <v>44919</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -6319,23 +6319,23 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44922</v>
+        <v>44920</v>
       </c>
       <c r="B742">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44923</v>
+        <v>44922</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44924</v>
+        <v>44923</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -6343,39 +6343,39 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44925</v>
+        <v>44924</v>
       </c>
       <c r="B745">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44926</v>
+        <v>44925</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44931</v>
+        <v>44926</v>
       </c>
       <c r="B747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44935</v>
+        <v>44931</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44937</v>
+        <v>44935</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44938</v>
+        <v>44937</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44939</v>
+        <v>44938</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44940</v>
+        <v>44939</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44941</v>
+        <v>44940</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -6415,9 +6415,73 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
         <v>44950</v>
       </c>
-      <c r="B754">
+      <c r="B757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44956</v>
+      </c>
+      <c r="B759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44969</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B762">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B762"/>
+  <dimension ref="A1:B769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44322</v>
       </c>
       <c r="B343">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44332</v>
       </c>
       <c r="B353">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44338</v>
       </c>
       <c r="B359">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>44581</v>
       </c>
       <c r="B557">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -6482,6 +6482,62 @@
         <v>44970</v>
       </c>
       <c r="B762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B763">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B769">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_cusco.xlsx
+++ b/regiones/fallecidos_cusco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B769"/>
+  <dimension ref="A1:B771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,7 +954,7 @@
         <v>44044</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44052</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44164</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44187</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44284</v>
       </c>
       <c r="B305">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44322</v>
       </c>
       <c r="B343">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44338</v>
       </c>
       <c r="B359">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44394</v>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4543,7 +4543,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44523</v>
+        <v>44521</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44525</v>
+        <v>44524</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -4575,55 +4575,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44528</v>
+        <v>44527</v>
       </c>
       <c r="B524">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44529</v>
+        <v>44528</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44536</v>
+        <v>44531</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44537</v>
+        <v>44536</v>
       </c>
       <c r="B528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44538</v>
+        <v>44537</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44539</v>
+        <v>44538</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -4639,23 +4639,23 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44543</v>
+        <v>44542</v>
       </c>
       <c r="B532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44544</v>
+        <v>44543</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -4663,23 +4663,23 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44547</v>
+        <v>44546</v>
       </c>
       <c r="B535">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44550</v>
+        <v>44547</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44551</v>
+        <v>44550</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44553</v>
+        <v>44552</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44556</v>
+        <v>44553</v>
       </c>
       <c r="B540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44562</v>
+        <v>44556</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -4743,15 +4743,15 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B545">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B546">
         <v>3</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B547">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B551">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B552">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B553">
         <v>4</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B554">
         <v>4</v>
@@ -4823,71 +4823,71 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B555">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B557">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B558">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B560">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B561">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B562">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B563">
         <v>7</v>
@@ -4895,63 +4895,63 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B564">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B565">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B566">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B567">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B568">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B569">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B570">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B571">
         <v>7</v>
@@ -4959,199 +4959,199 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B572">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B573">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B574">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="B575">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44601</v>
+        <v>44600</v>
       </c>
       <c r="B577">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B578">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B579">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="B581">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="B582">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="B584">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="B587">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B589">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B591">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="B593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="B594">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="B597">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="B598">
         <v>3</v>
@@ -5175,63 +5175,63 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="B599">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B602">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B603">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44632</v>
+        <v>44631</v>
       </c>
       <c r="B604">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44634</v>
+        <v>44632</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44636</v>
+        <v>44635</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -5247,23 +5247,23 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44637</v>
+        <v>44636</v>
       </c>
       <c r="B608">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44638</v>
+        <v>44637</v>
       </c>
       <c r="B609">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44639</v>
+        <v>44638</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44640</v>
+        <v>44639</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -5279,23 +5279,23 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44641</v>
+        <v>44640</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44644</v>
+        <v>44641</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44648</v>
+        <v>44645</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44655</v>
+        <v>44650</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -5335,39 +5335,39 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44657</v>
+        <v>44655</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44659</v>
+        <v>44657</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44662</v>
+        <v>44659</v>
       </c>
       <c r="B621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -5383,23 +5383,23 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44669</v>
+        <v>44667</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44676</v>
+        <v>44674</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44679</v>
+        <v>44677</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44681</v>
+        <v>44679</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -5439,15 +5439,15 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -5463,15 +5463,15 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44690</v>
+        <v>44686</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44698</v>
+        <v>44691</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -5487,23 +5487,23 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44701</v>
+        <v>44698</v>
       </c>
       <c r="B638">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B641">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44712</v>
+        <v>44710</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44717</v>
+        <v>44714</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44719</v>
+        <v>44717</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44723</v>
+        <v>44719</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44724</v>
+        <v>44723</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -5575,23 +5575,23 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44726</v>
+        <v>44724</v>
       </c>
       <c r="B649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44729</v>
+        <v>44726</v>
       </c>
       <c r="B650">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44731</v>
+        <v>44729</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44732</v>
+        <v>44731</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44733</v>
+        <v>44732</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="B655">
         <v>1</v>
@@ -5631,23 +5631,23 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="B656">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44739</v>
+        <v>44738</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44742</v>
+        <v>44739</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44743</v>
+        <v>44742</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44745</v>
+        <v>44743</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44747</v>
+        <v>44745</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44749</v>
+        <v>44746</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -5695,39 +5695,39 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="B664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44753</v>
+        <v>44750</v>
       </c>
       <c r="B665">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44754</v>
+        <v>44751</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -5735,55 +5735,55 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="B669">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44758</v>
+        <v>44756</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44759</v>
+        <v>44757</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44761</v>
+        <v>44758</v>
       </c>
       <c r="B672">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44762</v>
+        <v>44759</v>
       </c>
       <c r="B673">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44763</v>
+        <v>44761</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44764</v>
+        <v>44762</v>
       </c>
       <c r="B675">
         <v>3</v>
@@ -5791,15 +5791,15 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44766</v>
+        <v>44763</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44767</v>
+        <v>44764</v>
       </c>
       <c r="B677">
         <v>3</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44769</v>
+        <v>44766</v>
       </c>
       <c r="B678">
         <v>3</v>
@@ -5815,39 +5815,39 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44771</v>
+        <v>44767</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44773</v>
+        <v>44769</v>
       </c>
       <c r="B680">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44774</v>
+        <v>44771</v>
       </c>
       <c r="B681">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44775</v>
+        <v>44773</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44777</v>
+        <v>44774</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -5855,39 +5855,39 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44778</v>
+        <v>44775</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44779</v>
+        <v>44777</v>
       </c>
       <c r="B685">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44780</v>
+        <v>44778</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44781</v>
+        <v>44779</v>
       </c>
       <c r="B687">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44782</v>
+        <v>44780</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -5895,31 +5895,31 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44783</v>
+        <v>44781</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44785</v>
+        <v>44782</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44786</v>
+        <v>44783</v>
       </c>
       <c r="B691">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44787</v>
+        <v>44785</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -5927,15 +5927,15 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44788</v>
+        <v>44786</v>
       </c>
       <c r="B693">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44789</v>
+        <v>44787</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -5943,55 +5943,55 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44791</v>
+        <v>44788</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44792</v>
+        <v>44789</v>
       </c>
       <c r="B696">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44793</v>
+        <v>44791</v>
       </c>
       <c r="B697">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44794</v>
+        <v>44792</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44795</v>
+        <v>44793</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44796</v>
+        <v>44794</v>
       </c>
       <c r="B700">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44797</v>
+        <v>44795</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -5999,87 +5999,87 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44799</v>
+        <v>44796</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44800</v>
+        <v>44797</v>
       </c>
       <c r="B703">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44801</v>
+        <v>44799</v>
       </c>
       <c r="B704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44802</v>
+        <v>44800</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44803</v>
+        <v>44801</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="B707">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44805</v>
+        <v>44803</v>
       </c>
       <c r="B708">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44806</v>
+        <v>44804</v>
       </c>
       <c r="B709">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44809</v>
+        <v>44805</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -6087,15 +6087,15 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="B713">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44815</v>
+        <v>44812</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44816</v>
+        <v>44813</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -6111,15 +6111,15 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44818</v>
+        <v>44815</v>
       </c>
       <c r="B716">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="B717">
         <v>2</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44822</v>
+        <v>44818</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -6135,15 +6135,15 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44825</v>
+        <v>44819</v>
       </c>
       <c r="B719">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44827</v>
+        <v>44822</v>
       </c>
       <c r="B720">
         <v>2</v>
@@ -6151,23 +6151,23 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44828</v>
+        <v>44825</v>
       </c>
       <c r="B721">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>44829</v>
+        <v>44827</v>
       </c>
       <c r="B722">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>44835</v>
+        <v>44828</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>44836</v>
+        <v>44829</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>44838</v>
+        <v>44835</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -6191,15 +6191,15 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>44840</v>
+        <v>44836</v>
       </c>
       <c r="B726">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -6207,15 +6207,15 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>44847</v>
+        <v>44840</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>44864</v>
+        <v>44841</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>44878</v>
+        <v>44847</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>44884</v>
+        <v>44864</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>44893</v>
+        <v>44878</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -6247,47 +6247,47 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>44898</v>
+        <v>44884</v>
       </c>
       <c r="B733">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>44899</v>
+        <v>44893</v>
       </c>
       <c r="B734">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>44902</v>
+        <v>44899</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>44906</v>
+        <v>44901</v>
       </c>
       <c r="B737">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>44910</v>
+        <v>44902</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -6295,15 +6295,15 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>44912</v>
+        <v>44906</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>44916</v>
+        <v>44910</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>44919</v>
+        <v>44912</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>44920</v>
+        <v>44916</v>
       </c>
       <c r="B742">
         <v>1</v>
@@ -6327,15 +6327,15 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>44922</v>
+        <v>44919</v>
       </c>
       <c r="B743">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>44923</v>
+        <v>44920</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -6343,23 +6343,23 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>44924</v>
+        <v>44922</v>
       </c>
       <c r="B745">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>44925</v>
+        <v>44923</v>
       </c>
       <c r="B746">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>44926</v>
+        <v>44924</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>44931</v>
+        <v>44925</v>
       </c>
       <c r="B748">
         <v>2</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>44935</v>
+        <v>44926</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -6383,15 +6383,15 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>44937</v>
+        <v>44931</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>44938</v>
+        <v>44935</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>44939</v>
+        <v>44937</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>44940</v>
+        <v>44938</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>44941</v>
+        <v>44939</v>
       </c>
       <c r="B754">
         <v>1</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>44942</v>
+        <v>44940</v>
       </c>
       <c r="B755">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>44943</v>
+        <v>44941</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>44950</v>
+        <v>44942</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>44951</v>
+        <v>44943</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>44956</v>
+        <v>44950</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>44964</v>
+        <v>44951</v>
       </c>
       <c r="B760">
         <v>1</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>44969</v>
+        <v>44956</v>
       </c>
       <c r="B761">
         <v>1</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>44970</v>
+        <v>44964</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -6487,15 +6487,15 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>44975</v>
+        <v>44969</v>
       </c>
       <c r="B763">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>44979</v>
+        <v>44970</v>
       </c>
       <c r="B764">
         <v>1</v>
@@ -6503,15 +6503,15 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>44984</v>
+        <v>44975</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>44985</v>
+        <v>44979</v>
       </c>
       <c r="B766">
         <v>1</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>44990</v>
+        <v>44984</v>
       </c>
       <c r="B767">
         <v>1</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>45002</v>
+        <v>44985</v>
       </c>
       <c r="B768">
         <v>1</v>
@@ -6535,9 +6535,25 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
         <v>45005</v>
       </c>
-      <c r="B769">
+      <c r="B771">
         <v>1</v>
       </c>
     </row>
